--- a/State COVID-19 Vaccine Priority Populations.xlsx
+++ b/State COVID-19 Vaccine Priority Populations.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\KCMU\Kendal O\COVID\Metrics\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDDA2C09-A549-4BB4-913E-4B2DE68B7261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A59B7C9-20ED-4A1F-AE2B-EABA2366581E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State COVID-19 Vaccine Priority" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="179">
   <si>
     <t>Title: State COVID-19 Vaccine Priority Populations | KFF</t>
   </si>
   <si>
-    <t>Timeframe: as of January 11, 2021</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -52,21 +49,9 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations:35; Varies from ACIP Recommendations: 16</t>
-  </si>
-  <si>
-    <t>Follows ACIP Recommendations:14; Varies from ACIP Recommendations: 30; Not updated: 7</t>
-  </si>
-  <si>
-    <t>Follows ACIP Recommendations:17; Varies from ACIP Recommendations: 15; Not updated: 19</t>
-  </si>
-  <si>
     <t>Includes congregate settings: 24; Does not include congregate settings: 27</t>
   </si>
   <si>
-    <t>Phase 1a: 35; Phase 1b: 11; Phase determined by counties: 5</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -100,9 +85,6 @@
     <t>Phase 1b includes adults with high-risk conditions living in congregate settings; Phase 1c includes all adults living in congregate settings</t>
   </si>
   <si>
-    <t>9 of 16 counties are in Phase 1a; 6 counties have moved to Phase 1b</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
@@ -208,9 +190,6 @@
     <t>Differs from ACIP recommendations: includes people ages 60+; other priority groups have not been announced</t>
   </si>
   <si>
-    <t>Phase 1b-administering to people ages 80+ only</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
@@ -247,18 +226,12 @@
     <t>Maryland</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: correctional officers; law enforcement; frontline judiciary staff.</t>
-  </si>
-  <si>
     <t>Follows ACIP age recommendation but differs by limiting frontline workers to K-12 and child care personnel and continuity of government staff. Also includes developmentally disabled populations.</t>
   </si>
   <si>
     <t>Follows ACIP age recommendation but differs by limiting essential workers to certain critical sectors</t>
   </si>
   <si>
-    <t>Phase 1b includes people living in special needs group homes and high-risk inmates</t>
-  </si>
-  <si>
     <t>Massachusetts</t>
   </si>
   <si>
@@ -352,9 +325,6 @@
     <t>New York</t>
   </si>
   <si>
-    <t>Follows ACIP age recommendation, but frontline workers limited to K-12 personnel, first responders, public safety workers, public transit workers</t>
-  </si>
-  <si>
     <t>North Carolina</t>
   </si>
   <si>
@@ -487,9 +457,6 @@
     <t>West Virginia</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: people ages 80+</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
@@ -545,12 +512,57 @@
   </si>
   <si>
     <t>5. Tennessee has proposed two additional phases; phase 2a/b includes people ages 55-64 and critical infrastructure workers; phase 3 includes people ages 45-54, people living in congregate settings, grocery workers, and residents of correctional facilities</t>
+  </si>
+  <si>
+    <t>Timeframe: as of January 13, 2021</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations:34; Varies from ACIP Recommendations: 17</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations:13; Varies from ACIP Recommendations: 31; Not updated: 7</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations:17; Varies from ACIP Recommendations: 16; Not updated: 18</t>
+  </si>
+  <si>
+    <t>Phase 1a: 31; Phase 1b: 15; Phase determined by counties: 5</t>
+  </si>
+  <si>
+    <t>Most counties are in Phase 1b; some remain in Phase 1a</t>
+  </si>
+  <si>
+    <t>Phase 1b: administering to fire and corrections personnel, law enforcement, and K-12 personnel only</t>
+  </si>
+  <si>
+    <t>Phase 1b-administering to people ages 70+ only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: correctional officers; law enforcement; frontline judiciary staff. Long-term care facility staff and residents limited to nursing homes.</t>
+  </si>
+  <si>
+    <t>Phase 1b includes people living in assisted living facilities, special needs group homes, and high-risk inmates</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; frontline workers limited to K-12 personnel, first responders, public safety workers, public transit workers</t>
+  </si>
+  <si>
+    <t>Phase 1b--administering to people ages 75+ only</t>
+  </si>
+  <si>
+    <t>Phase 1b: administering to people ages 65+ only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 70+</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended frontline workers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1384,11 +1396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,204 +1412,204 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1605,235 +1617,235 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1841,22 +1853,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1864,147 +1876,147 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -2012,244 +2024,244 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
         <v>16</v>
       </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
         <v>16</v>
       </c>
-      <c r="C44" t="s">
-        <v>21</v>
-      </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -2257,232 +2269,232 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" t="s">
-        <v>21</v>
-      </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
         <v>16</v>
       </c>
-      <c r="C50" t="s">
-        <v>21</v>
-      </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/State COVID-19 Vaccine Priority Populations.xlsx
+++ b/State COVID-19 Vaccine Priority Populations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\KCMU\Kendal O\COVID\Metrics\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A59B7C9-20ED-4A1F-AE2B-EABA2366581E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B16311E-3735-4B31-AD97-834984B63523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="4560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State COVID-19 Vaccine Priority" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="178">
   <si>
     <t>Title: State COVID-19 Vaccine Priority Populations | KFF</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Phase 1b includes those who are incarcerated and homeless</t>
   </si>
   <si>
-    <t>Phase 1a; counties determine when to move to Phase 1b and subsequent phases</t>
-  </si>
-  <si>
     <t>Colorado</t>
   </si>
   <si>
@@ -526,9 +523,6 @@
     <t>Follows ACIP Recommendations:17; Varies from ACIP Recommendations: 16; Not updated: 18</t>
   </si>
   <si>
-    <t>Phase 1a: 31; Phase 1b: 15; Phase determined by counties: 5</t>
-  </si>
-  <si>
     <t>Most counties are in Phase 1b; some remain in Phase 1a</t>
   </si>
   <si>
@@ -557,6 +551,9 @@
   </si>
   <si>
     <t>Includes ACIP recommended frontline workers</t>
+  </si>
+  <si>
+    <t>Phase 1a: 31; Phase 1b: 16; Phase determined by counties: 4</t>
   </si>
 </sst>
 </file>
@@ -1399,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1443,19 +1440,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
         <v>165</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>166</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1515,7 +1512,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1552,29 +1549,29 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1586,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1594,19 +1591,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1617,30 +1614,30 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1654,16 +1651,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1671,7 +1668,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1683,12 +1680,12 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1700,24 +1697,24 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1725,24 +1722,24 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1759,19 +1756,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -1779,16 +1776,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1796,24 +1793,24 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1830,19 +1827,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
       </c>
-      <c r="B25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1853,19 +1850,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
         <v>71</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>72</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1876,24 +1873,24 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -1910,33 +1907,33 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
         <v>77</v>
       </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>78</v>
-      </c>
-      <c r="F29" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
@@ -1947,19 +1944,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>82</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>83</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>84</v>
-      </c>
-      <c r="E31" t="s">
-        <v>85</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -1967,7 +1964,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -1984,10 +1981,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
         <v>87</v>
-      </c>
-      <c r="B33" t="s">
-        <v>88</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -2001,19 +1998,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
         <v>90</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>91</v>
-      </c>
-      <c r="E34" t="s">
-        <v>92</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -2024,96 +2021,96 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
         <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>94</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" t="s">
         <v>95</v>
-      </c>
-      <c r="F35" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
         <v>97</v>
       </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
         <v>98</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>31</v>
-      </c>
-      <c r="E36" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
         <v>101</v>
       </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>102</v>
-      </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
         <v>103</v>
       </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>104</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>105</v>
-      </c>
-      <c r="E39" t="s">
-        <v>106</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -2121,13 +2118,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
         <v>107</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>108</v>
-      </c>
-      <c r="C40" t="s">
-        <v>109</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -2138,27 +2135,27 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
         <v>110</v>
       </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>111</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>112</v>
       </c>
-      <c r="E41" t="s">
-        <v>113</v>
-      </c>
       <c r="F41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -2175,19 +2172,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
         <v>115</v>
       </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
         <v>116</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
-        <v>117</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -2195,7 +2192,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -2212,13 +2209,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -2229,19 +2226,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s">
         <v>120</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>121</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>122</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>123</v>
-      </c>
-      <c r="E46" t="s">
-        <v>124</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -2249,19 +2246,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
         <v>125</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>126</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>127</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>128</v>
-      </c>
-      <c r="F47" t="s">
-        <v>129</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -2269,36 +2266,36 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
         <v>130</v>
-      </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" t="s">
-        <v>131</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" t="s">
         <v>132</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>133</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>134</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>135</v>
-      </c>
-      <c r="E49" t="s">
-        <v>136</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -2306,7 +2303,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -2323,39 +2320,39 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
         <v>138</v>
       </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>139</v>
-      </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
         <v>140</v>
       </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>141</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>142</v>
-      </c>
-      <c r="E52" t="s">
-        <v>143</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2363,10 +2360,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -2380,7 +2377,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -2397,10 +2394,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s">
         <v>146</v>
-      </c>
-      <c r="B55" t="s">
-        <v>147</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
@@ -2409,62 +2406,62 @@
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -2474,27 +2471,27 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/State COVID-19 Vaccine Priority Populations.xlsx
+++ b/State COVID-19 Vaccine Priority Populations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\KCMU\Kendal O\COVID\Metrics\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B16311E-3735-4B31-AD97-834984B63523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E649E5-2F94-411A-95B7-5F5FF6BA3591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27630" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State COVID-19 Vaccine Priority" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="182">
   <si>
     <t>Title: State COVID-19 Vaccine Priority Populations | KFF</t>
   </si>
@@ -256,9 +256,6 @@
     <t>Phase 1c includes people ages 16-64 in congregate settings and correctional facilities</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 75+ only</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
@@ -301,15 +298,9 @@
     <t>New Jersey</t>
   </si>
   <si>
-    <t>Follows ACIP age recommendation; frontline workers initially limited to fire and law enforcement with other groups to be defined</t>
-  </si>
-  <si>
     <t>Phase 1a includes those living in institutional, congregate settings such as psychiatric hospitals, correctional institutions, county jails, and juvenile detention facilities</t>
   </si>
   <si>
-    <t>Phase 1b; administering to fire and law enforcement personnel only</t>
-  </si>
-  <si>
     <t>New Mexico</t>
   </si>
   <si>
@@ -511,15 +502,9 @@
     <t>5. Tennessee has proposed two additional phases; phase 2a/b includes people ages 55-64 and critical infrastructure workers; phase 3 includes people ages 45-54, people living in congregate settings, grocery workers, and residents of correctional facilities</t>
   </si>
   <si>
-    <t>Timeframe: as of January 13, 2021</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations:34; Varies from ACIP Recommendations: 17</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations:13; Varies from ACIP Recommendations: 31; Not updated: 7</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations:17; Varies from ACIP Recommendations: 16; Not updated: 18</t>
   </si>
   <si>
@@ -553,7 +538,34 @@
     <t>Includes ACIP recommended frontline workers</t>
   </si>
   <si>
-    <t>Phase 1a: 31; Phase 1b: 16; Phase determined by counties: 4</t>
+    <t>Timeframe: as of January 14, 2021</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations:12; Varies from ACIP Recommendations: 32; Not updated: 7</t>
+  </si>
+  <si>
+    <t>Phase 1a: 31; Phase 1b: 15; Phase determined by counties: 5</t>
+  </si>
+  <si>
+    <t>Phase 1b statewide: administering to people ages 65+ only. Counties determine when to include additional populations</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65+; people ages 16-64 with high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Includes all essential workers</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus; people ages 65+; people ages 16-64 with high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Includes other essential workers</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions; and fire/law enforcement personnel only</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1409,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1421,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1440,19 +1452,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,7 +1524,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1549,7 +1561,7 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1697,7 +1709,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1734,7 +1746,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1830,7 +1842,7 @@
         <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
@@ -1839,7 +1851,7 @@
         <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1913,27 +1925,27 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="E29" t="s">
         <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
         <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
@@ -1944,19 +1956,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>81</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>82</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>83</v>
-      </c>
-      <c r="E31" t="s">
-        <v>84</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -1964,7 +1976,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -1981,10 +1993,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
         <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1998,19 +2010,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
         <v>89</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>90</v>
-      </c>
-      <c r="E34" t="s">
-        <v>91</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -2021,39 +2033,39 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" t="s">
         <v>92</v>
       </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>94</v>
-      </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
         <v>31</v>
@@ -2061,13 +2073,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
@@ -2078,7 +2090,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -2090,27 +2102,27 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
         <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" t="s">
-        <v>105</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -2118,13 +2130,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -2135,27 +2147,27 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
         <v>109</v>
       </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" t="s">
-        <v>112</v>
-      </c>
       <c r="F41" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -2172,19 +2184,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -2192,7 +2204,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -2209,13 +2221,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -2226,19 +2238,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
         <v>119</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E46" t="s">
         <v>120</v>
-      </c>
-      <c r="C46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" t="s">
-        <v>123</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -2246,19 +2258,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" t="s">
         <v>124</v>
       </c>
-      <c r="B47" t="s">
+      <c r="F47" t="s">
         <v>125</v>
-      </c>
-      <c r="C47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" t="s">
-        <v>128</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -2266,13 +2278,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
@@ -2283,19 +2295,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" t="s">
         <v>131</v>
       </c>
-      <c r="B49" t="s">
+      <c r="E49" t="s">
         <v>132</v>
-      </c>
-      <c r="C49" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" t="s">
-        <v>135</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -2303,7 +2315,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -2320,7 +2332,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -2332,27 +2344,27 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F51" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" t="s">
         <v>139</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" t="s">
-        <v>142</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2360,10 +2372,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -2377,7 +2389,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -2394,10 +2406,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
@@ -2406,62 +2418,62 @@
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -2471,27 +2483,27 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/State COVID-19 Vaccine Priority Populations.xlsx
+++ b/State COVID-19 Vaccine Priority Populations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\KCMU\Kendal O\COVID\Metrics\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E649E5-2F94-411A-95B7-5F5FF6BA3591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D82D95-9482-4BEF-B48B-A797F2D856CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State COVID-19 Vaccine Priority" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="209">
   <si>
     <t>Title: State COVID-19 Vaccine Priority Populations | KFF</t>
   </si>
@@ -49,9 +49,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Includes congregate settings: 24; Does not include congregate settings: 27</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>Differs from ACIP recommendation: expanded to include all essential workers</t>
   </si>
   <si>
-    <t>Follows ACIP recommendation to include people ages 16-64 with medical conditions; other ACIP recommended groups are included in Phases 1a and 1b</t>
-  </si>
-  <si>
     <t>Hawaii</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>Includes ACIP recommended groups plus: people ages 65-74; frontline workers expanded to include those in retail, warehouses, sales, and supplying critical materials for COVID response</t>
   </si>
   <si>
-    <t>Phase 1b includes residents in congregate settings (homeless shelters, emergency shelters, correctional facilities, behavioral health institutions, and others)</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
@@ -214,9 +205,6 @@
     <t>Includes ACIP recommended groups plus: people ages 70-74; frontline workers expanded to include other health care workers and security personnel</t>
   </si>
   <si>
-    <t>Phase 1b-administering to people ages 70+, ambulatory/outpatient/medical/dental/behavioral health clinic personnel only</t>
-  </si>
-  <si>
     <t>Maine</t>
   </si>
   <si>
@@ -232,9 +220,6 @@
     <t>Massachusetts</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: expanded to include most other essential worker categories; people ages 16-74 with at least 2 high-risk medical conditions</t>
-  </si>
-  <si>
     <t>Follows ACIP age recommendation and includes people ages 16-64 with 1 health condition</t>
   </si>
   <si>
@@ -244,9 +229,6 @@
     <t>Michigan</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 75+ and people ages 65-74 (phase 1c) only</t>
-  </si>
-  <si>
     <t>Minnesota</t>
   </si>
   <si>
@@ -286,9 +268,6 @@
     <t>New Hampshire</t>
   </si>
   <si>
-    <t>Follows ACIP age recommendation but differs by limiting frontline workers to corrections officers/staff. Also includes people ages 16-74 with 2 or more underlying health conditions and their caregivers</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations and includes: people ages 50-74; frontline workers limited to  K-12 and childcare personnel</t>
   </si>
   <si>
@@ -358,9 +337,6 @@
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: people receiving home and community-based services; frontline workers expanded to include clergy, staff of early childhood and adult day programs</t>
-  </si>
-  <si>
     <t>Phase 1b includes people living in congregate settings not otherwise specified as long-term care facilities</t>
   </si>
   <si>
@@ -433,9 +409,6 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>Differs from ACIP recommended groups: includes people ages 70+; people ages 50-69 in multigenerational households; high-risk critical workers ages 50-69 who work in certain congregate settings; people ages 16-69 with 2 or more medical conditions.</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people with disabilities that prevent them from adopting protective measures</t>
   </si>
   <si>
@@ -457,9 +430,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>The Advisory Committee on Immunization Practices (ACIP) recommended population groups to be included in Phase 1 distribution of the COVID-19 vaccine. These recommended Phase 1 priorities are:</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - Phase 1a: Health care workers and long-term care facility residents</t>
   </si>
   <si>
@@ -496,27 +466,9 @@
     <t>3. Massachusetts has proposed two priority phases, instead of three, before the vaccine becomes available to the general public. However, because the state's priority groups roughly align with the ACIP recommendations, we have presented them within the ACIP framework</t>
   </si>
   <si>
-    <t>4. New Hampshire has proposed an additional phase that includes people ages 16-49 with one high risk medical condition</t>
-  </si>
-  <si>
-    <t>5. Tennessee has proposed two additional phases; phase 2a/b includes people ages 55-64 and critical infrastructure workers; phase 3 includes people ages 45-54, people living in congregate settings, grocery workers, and residents of correctional facilities</t>
-  </si>
-  <si>
-    <t>Follows ACIP Recommendations:34; Varies from ACIP Recommendations: 17</t>
-  </si>
-  <si>
-    <t>Follows ACIP Recommendations:17; Varies from ACIP Recommendations: 16; Not updated: 18</t>
-  </si>
-  <si>
-    <t>Most counties are in Phase 1b; some remain in Phase 1a</t>
-  </si>
-  <si>
     <t>Phase 1b: administering to fire and corrections personnel, law enforcement, and K-12 personnel only</t>
   </si>
   <si>
-    <t>Phase 1b-administering to people ages 70+ only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: correctional officers; law enforcement; frontline judiciary staff. Long-term care facility staff and residents limited to nursing homes.</t>
   </si>
   <si>
@@ -526,9 +478,6 @@
     <t>Differs from ACIP recommendations: includes people ages 65+; frontline workers limited to K-12 personnel, first responders, public safety workers, public transit workers</t>
   </si>
   <si>
-    <t>Phase 1b--administering to people ages 75+ only</t>
-  </si>
-  <si>
     <t>Phase 1b: administering to people ages 65+ only</t>
   </si>
   <si>
@@ -538,18 +487,6 @@
     <t>Includes ACIP recommended frontline workers</t>
   </si>
   <si>
-    <t>Timeframe: as of January 14, 2021</t>
-  </si>
-  <si>
-    <t>Follows ACIP Recommendations:12; Varies from ACIP Recommendations: 32; Not updated: 7</t>
-  </si>
-  <si>
-    <t>Phase 1a: 31; Phase 1b: 15; Phase determined by counties: 5</t>
-  </si>
-  <si>
-    <t>Phase 1b statewide: administering to people ages 65+ only. Counties determine when to include additional populations</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 65+; people ages 16-64 with high-risk medical conditions</t>
   </si>
   <si>
@@ -559,13 +496,157 @@
     <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions only</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus; people ages 65+; people ages 16-64 with high-risk medical conditions</t>
-  </si>
-  <si>
     <t>Includes other essential workers</t>
   </si>
   <si>
     <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions; and fire/law enforcement personnel only</t>
+  </si>
+  <si>
+    <t>Timeframe: as of January 25, 2021</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations: 31; Varies from ACIP Recommendations: 20</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations: 4; Varies from ACIP Recommendations: 45; Not updated: 2</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations: 6; Varies from ACIP Recommendations: 27; Not updated: 18</t>
+  </si>
+  <si>
+    <t>Includes congregate settings: 26; Does not include congregate settings: 25</t>
+  </si>
+  <si>
+    <t>Phase 1a: 11; Phase 1b: 38; Phase 1c: 2</t>
+  </si>
+  <si>
+    <t>Includes people ages 16-64 with high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Most counties are in Phase 1b; one remains in Phase 1a</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations, except people ages 70-74 are covered in Phase 1b</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 70+ and K-12 and child care personnel only</t>
+  </si>
+  <si>
+    <t>Phase 1b statewide: administering to people ages 65+; K-12, emergency services, food/agriculture personnel. Counties determine when to include additional populations</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 60-69</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 75+ only</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations, except people ages 65-74 are included in phase 1b</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 70+ only</t>
+  </si>
+  <si>
+    <t>Follows ACIP age recommendation but differs by limiting frontline workers to K-12 and child care, law enforcement and fire personnel, child welfare social workers, and those who work or live in congregate settings where outbreaks occur. Also includes people with disabilities in home settings and their care staff.</t>
+  </si>
+  <si>
+    <t>Phase 1b includes residents in congregate settings (homeless shelters, behavioral health treatment centers, and others) and correctional facilities</t>
+  </si>
+  <si>
+    <t>Phase 1b includes residents in congregate settings and correctional facilities</t>
+  </si>
+  <si>
+    <t>Phase 1b-administering to people ages 70+ and ambulatory, outpatient, medical, dental, behavioral health clinic personnel only</t>
+  </si>
+  <si>
+    <t>Phase 1c</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: expanded to include most other essential worker categories; people ages 16-74 with at least 2 high-risk medical conditions; and residents and staff in affordable senior housing</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 75+ (phase 1b) and people ages 65-74 (phase 1c) only</t>
+  </si>
+  <si>
+    <t>Phase 1b: administering to first responders, emergency services, and public health infrastructure personnel; people ages 65+; people ages 16-64 with high-risk medical conditions only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 18-64 with high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people with disabilities</t>
+  </si>
+  <si>
+    <t>Phase 1c includes people who are homeless</t>
+  </si>
+  <si>
+    <t>Phase 1b; most counties administering to people ages 70+ only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with 2 or more underlying health conditions and their caregivers; and limits frontline workers to first responders, corrections officers/staff</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus; people ages 65-74; people ages 16-64 with high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 75+ and people ages 16-74 with high-risk medical conditions only</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 75+ and people with developmental or intellectual disability and other congential condition only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; frontline workers limited to K-12 and child care personnel</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to K-12 personnel only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65+; people ages 16-64 with at least one high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people receiving home and community-based services; frontline workers expanded to include clergy and staff of early childhood and adult day programs</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: law enforcement and fire personnel</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 80+; certain high-risk individuals (dialysis, post-transplant, active cancer); and high-risk residents in congregate settings only</t>
+  </si>
+  <si>
+    <t>Includes people ages 75+; other groups will be added as vaccine supplies increase</t>
+  </si>
+  <si>
+    <t>Phase 1b; administerting to people ages 75+ only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions;</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommended groups: includes people ages 65+; people ages 50-64 in multigenerational households; high-risk critical workers ages 50-64 who work in certain congregate settings; people ages 16-69 with 2 or more medical conditions.</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; people ages 50-69 in multigenerational households only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommended groups: includes people ages 65-69; frontline workers limited to teachers ages 50+. Other groups to be added</t>
+  </si>
+  <si>
+    <t>Includes people ages 65+; other groups to be added</t>
+  </si>
+  <si>
+    <t>In December 2020, the Advisory Committee on Immunization Practices (ACIP) recommended population groups to be included in Phase 1 distribution of the COVID-19 vaccine. These recommended Phase 1 priorities are:</t>
+  </si>
+  <si>
+    <t>On January 12, 2021, the Trump administration recommended that states expand eligibility for the COVID-19 vaccine to all people ages 65+.  A number of states have updated their priority groups to reflect this updated guidance. In this table, however, references to "ACIP Recommendations" or "ACIP recommended groups" are to the December 2020 recommendations.</t>
+  </si>
+  <si>
+    <t>4. COVID-19 vaccines are available to adults 65 years of age or older and K-12 personnel in nine pilot sites across the state.</t>
+  </si>
+  <si>
+    <t>5. New Hampshire has proposed an additional phase that includes people ages 16-49 with one high risk medical condition</t>
+  </si>
+  <si>
+    <t>6. Tennessee has proposed two additional phases; phase 2a/b includes people ages 55-64 and critical infrastructure workers; phase 3 includes people ages 45-54, people living in congregate settings, grocery workers, and residents of correctional facilities</t>
   </si>
 </sst>
 </file>
@@ -1406,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1502,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1452,173 +1533,173 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1626,235 +1707,238 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
         <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1862,22 +1946,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1885,625 +1969,641 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>184</v>
+      </c>
+      <c r="E33" t="s">
+        <v>185</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>153</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>155</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/State COVID-19 Vaccine Priority Populations.xlsx
+++ b/State COVID-19 Vaccine Priority Populations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\KCMU\Kendal O\COVID\Metrics\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D82D95-9482-4BEF-B48B-A797F2D856CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F559D3C1-0CF3-4C3F-9B87-D61A51831111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State COVID-19 Vaccine Priority" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="217">
   <si>
     <t>Title: State COVID-19 Vaccine Priority Populations | KFF</t>
   </si>
@@ -373,9 +373,6 @@
     <t>Differs from ACIP recommendations: includes people ages 16-64 with high-risk medical conditions but does not include other essential workers</t>
   </si>
   <si>
-    <t>Most counties are in Phase 1a; some counties have moved to Phase 1b</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -466,9 +463,6 @@
     <t>3. Massachusetts has proposed two priority phases, instead of three, before the vaccine becomes available to the general public. However, because the state's priority groups roughly align with the ACIP recommendations, we have presented them within the ACIP framework</t>
   </si>
   <si>
-    <t>Phase 1b: administering to fire and corrections personnel, law enforcement, and K-12 personnel only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: correctional officers; law enforcement; frontline judiciary staff. Long-term care facility staff and residents limited to nursing homes.</t>
   </si>
   <si>
@@ -502,30 +496,15 @@
     <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions; and fire/law enforcement personnel only</t>
   </si>
   <si>
-    <t>Timeframe: as of January 25, 2021</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations: 31; Varies from ACIP Recommendations: 20</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations: 4; Varies from ACIP Recommendations: 45; Not updated: 2</t>
-  </si>
-  <si>
-    <t>Follows ACIP Recommendations: 6; Varies from ACIP Recommendations: 27; Not updated: 18</t>
-  </si>
-  <si>
     <t>Includes congregate settings: 26; Does not include congregate settings: 25</t>
   </si>
   <si>
-    <t>Phase 1a: 11; Phase 1b: 38; Phase 1c: 2</t>
-  </si>
-  <si>
     <t>Includes people ages 16-64 with high-risk medical conditions</t>
   </si>
   <si>
-    <t>Most counties are in Phase 1b; one remains in Phase 1a</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations, except people ages 70-74 are covered in Phase 1b</t>
   </si>
   <si>
@@ -547,18 +526,12 @@
     <t>Phase 1b; administering to people ages 70+ only</t>
   </si>
   <si>
-    <t>Follows ACIP age recommendation but differs by limiting frontline workers to K-12 and child care, law enforcement and fire personnel, child welfare social workers, and those who work or live in congregate settings where outbreaks occur. Also includes people with disabilities in home settings and their care staff.</t>
-  </si>
-  <si>
     <t>Phase 1b includes residents in congregate settings (homeless shelters, behavioral health treatment centers, and others) and correctional facilities</t>
   </si>
   <si>
     <t>Phase 1b includes residents in congregate settings and correctional facilities</t>
   </si>
   <si>
-    <t>Phase 1b-administering to people ages 70+ and ambulatory, outpatient, medical, dental, behavioral health clinic personnel only</t>
-  </si>
-  <si>
     <t>Phase 1c</t>
   </si>
   <si>
@@ -592,9 +565,6 @@
     <t>Phase 1b; administering to people ages 75+ and people ages 16-74 with high-risk medical conditions only</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 75+ and people with developmental or intellectual disability and other congential condition only</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 65+; frontline workers limited to K-12 and child care personnel</t>
   </si>
   <si>
@@ -613,9 +583,6 @@
     <t>Phase 1b; administering to people ages 80+; certain high-risk individuals (dialysis, post-transplant, active cancer); and high-risk residents in congregate settings only</t>
   </si>
   <si>
-    <t>Includes people ages 75+; other groups will be added as vaccine supplies increase</t>
-  </si>
-  <si>
     <t>Phase 1b; administerting to people ages 75+ only</t>
   </si>
   <si>
@@ -640,13 +607,70 @@
     <t>On January 12, 2021, the Trump administration recommended that states expand eligibility for the COVID-19 vaccine to all people ages 65+.  A number of states have updated their priority groups to reflect this updated guidance. In this table, however, references to "ACIP Recommendations" or "ACIP recommended groups" are to the December 2020 recommendations.</t>
   </si>
   <si>
-    <t>4. COVID-19 vaccines are available to adults 65 years of age or older and K-12 personnel in nine pilot sites across the state.</t>
-  </si>
-  <si>
     <t>5. New Hampshire has proposed an additional phase that includes people ages 16-49 with one high risk medical condition</t>
   </si>
   <si>
     <t>6. Tennessee has proposed two additional phases; phase 2a/b includes people ages 55-64 and critical infrastructure workers; phase 3 includes people ages 45-54, people living in congregate settings, grocery workers, and residents of correctional facilities</t>
+  </si>
+  <si>
+    <t>Timeframe: as of February 1, 2021</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations: 3; Varies from ACIP Recommendations: 47; Not updated: 1</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations: 5; Varies from ACIP Recommendations: 28; Not updated: 18</t>
+  </si>
+  <si>
+    <t>Phase 1a: 6; Phase 1b: 42; Phase 1c: 3</t>
+  </si>
+  <si>
+    <t>All counties in phase 1b; 8 counties administering to people ages 65+; 7 counties administering to 75+</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 70+; moderate risk health care workers, and first responders only</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+, residents and staff in congregate settings, corrections inmates and staff, law enforcement, continuity of government, K-12 and child care personnel only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendation: includes people ages 65+; frontline workers limited to K-12 and child care, law enforcement and fire personnel, child welfare social workers, and those who work or live in congregate settings where outbreaks occur. Also includes people with disabilities in home settings and their care staff.</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+, first responders, K-12 and child care personnel</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 70+ and ambulatory, outpatient, medical, dental, behavioral health clinic, personnel only</t>
+  </si>
+  <si>
+    <t>Phase 1c plus people with certain immune disorders</t>
+  </si>
+  <si>
+    <t>Phase 1b: administering to people ages 65+ and people ages 18-64 with high-risk medical conditions only</t>
+  </si>
+  <si>
+    <t>Phase 1b; most vaccine sites administering to people ages 75+ only</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 70+, people with developmental or intellectual disability and other congential condition, and certain K-12 personnel only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 60+; people ages 16-64 with high-risk medical conditions; people living in certain hihg-risk communities</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 50-59; does not include essential workers</t>
+  </si>
+  <si>
+    <t>Most counties are in Phase 1a; many counties have moved to Phase 1b</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Most counties are in Phase 1b; administering to people ages 70+</t>
+  </si>
+  <si>
+    <t>4. Minnesota has made COVID-19 vaccines available to adults 65 years of age or older and K-12 personnel in nine pilot sites across the state.</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1514,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1526,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1533,19 +1557,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1599,13 +1623,13 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1619,10 +1643,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1642,7 +1666,7 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1656,10 +1680,10 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1670,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1679,7 +1703,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1722,7 +1746,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1753,7 +1777,7 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1787,10 +1811,10 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1827,7 +1851,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1838,16 +1862,16 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1864,7 +1888,7 @@
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
@@ -1884,7 +1908,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1901,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,10 +1939,10 @@
         <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,7 +1950,7 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -1935,10 +1959,10 @@
         <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1952,7 +1976,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
         <v>66</v>
@@ -1961,7 +1985,7 @@
         <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1981,7 +2005,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1992,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -2015,13 +2039,13 @@
         <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
         <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2038,7 +2062,7 @@
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2069,13 +2093,13 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2086,16 +2110,16 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2106,7 +2130,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D34" t="s">
         <v>82</v>
@@ -2129,16 +2153,16 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
         <v>85</v>
       </c>
       <c r="F35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2158,7 +2182,7 @@
         <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2169,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -2215,7 +2239,7 @@
         <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2232,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2252,7 +2276,7 @@
         <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2263,13 +2287,13 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2277,13 +2301,13 @@
         <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
         <v>105</v>
@@ -2297,16 +2321,16 @@
         <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2314,10 +2338,10 @@
         <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -2343,7 +2367,7 @@
         <v>112</v>
       </c>
       <c r="F46" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2360,7 +2384,7 @@
         <v>116</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -2368,13 +2392,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
         <v>118</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>119</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -2385,56 +2409,56 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
         <v>120</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>121</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>122</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>123</v>
       </c>
-      <c r="E49" t="s">
-        <v>124</v>
-      </c>
       <c r="F49" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
         <v>126</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" t="s">
-        <v>127</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
@@ -2442,33 +2466,33 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" t="s">
         <v>128</v>
       </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>129</v>
       </c>
-      <c r="E52" t="s">
-        <v>130</v>
-      </c>
       <c r="F52" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -2479,13 +2503,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -2496,10 +2520,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
         <v>133</v>
-      </c>
-      <c r="B55" t="s">
-        <v>134</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
@@ -2508,67 +2532,67 @@
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -2578,32 +2602,32 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/State COVID-19 Vaccine Priority Populations.xlsx
+++ b/State COVID-19 Vaccine Priority Populations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\KCMU\Kendal O\COVID\Metrics\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F559D3C1-0CF3-4C3F-9B87-D61A51831111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A9EB6C-3F52-4124-AEAA-8B2D95BB386C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="223">
   <si>
     <t>Title: State COVID-19 Vaccine Priority Populations | KFF</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Includes ACIP recommended groups, but health care workers limited to hospital personnel</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: people ages 70-74; frontline workers expanded to include other health care workers and security personnel</t>
-  </si>
-  <si>
     <t>Maine</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>Follows ACIP age recommendation but differs by limiting frontline workers to K-12 and child care personnel and continuity of government staff. Also includes developmentally disabled populations.</t>
   </si>
   <si>
-    <t>Follows ACIP age recommendation but differs by limiting essential workers to certain critical sectors</t>
-  </si>
-  <si>
     <t>Massachusetts</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
     <t>North Carolina</t>
   </si>
   <si>
-    <t>Phase 1c includes people living in congregate settings and correctional facilities</t>
-  </si>
-  <si>
     <t>North Dakota</t>
   </si>
   <si>
@@ -469,9 +460,6 @@
     <t>Phase 1b includes people living in assisted living facilities, special needs group homes, and high-risk inmates</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes people ages 65+; frontline workers limited to K-12 personnel, first responders, public safety workers, public transit workers</t>
-  </si>
-  <si>
     <t>Phase 1b: administering to people ages 65+ only</t>
   </si>
   <si>
@@ -481,9 +469,6 @@
     <t>Includes ACIP recommended frontline workers</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: people ages 65+; people ages 16-64 with high-risk medical conditions</t>
-  </si>
-  <si>
     <t>Includes all essential workers</t>
   </si>
   <si>
@@ -496,12 +481,6 @@
     <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions; and fire/law enforcement personnel only</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations: 31; Varies from ACIP Recommendations: 20</t>
-  </si>
-  <si>
-    <t>Includes congregate settings: 26; Does not include congregate settings: 25</t>
-  </si>
-  <si>
     <t>Includes people ages 16-64 with high-risk medical conditions</t>
   </si>
   <si>
@@ -511,9 +490,6 @@
     <t>Phase 1b; administering to people ages 70+ and K-12 and child care personnel only</t>
   </si>
   <si>
-    <t>Phase 1b statewide: administering to people ages 65+; K-12, emergency services, food/agriculture personnel. Counties determine when to include additional populations</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 60-69</t>
   </si>
   <si>
@@ -538,9 +514,6 @@
     <t>Includes ACIP recommended groups plus: expanded to include most other essential worker categories; people ages 16-74 with at least 2 high-risk medical conditions; and residents and staff in affordable senior housing</t>
   </si>
   <si>
-    <t>Phase 1c; administering to people ages 75+ (phase 1b) and people ages 65-74 (phase 1c) only</t>
-  </si>
-  <si>
     <t>Phase 1b: administering to first responders, emergency services, and public health infrastructure personnel; people ages 65+; people ages 16-64 with high-risk medical conditions only</t>
   </si>
   <si>
@@ -553,9 +526,6 @@
     <t>Phase 1c includes people who are homeless</t>
   </si>
   <si>
-    <t>Phase 1b; most counties administering to people ages 70+ only</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with 2 or more underlying health conditions and their caregivers; and limits frontline workers to first responders, corrections officers/staff</t>
   </si>
   <si>
@@ -568,9 +538,6 @@
     <t>Differs from ACIP recommendations: includes people ages 65+; frontline workers limited to K-12 and child care personnel</t>
   </si>
   <si>
-    <t>Phase 1b; administering to K-12 personnel only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 65+; people ages 16-64 with at least one high-risk medical conditions</t>
   </si>
   <si>
@@ -580,9 +547,6 @@
     <t>Includes ACIP recommended groups plus: law enforcement and fire personnel</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 80+; certain high-risk individuals (dialysis, post-transplant, active cancer); and high-risk residents in congregate settings only</t>
-  </si>
-  <si>
     <t>Phase 1b; administerting to people ages 75+ only</t>
   </si>
   <si>
@@ -610,27 +574,9 @@
     <t>5. New Hampshire has proposed an additional phase that includes people ages 16-49 with one high risk medical condition</t>
   </si>
   <si>
-    <t>6. Tennessee has proposed two additional phases; phase 2a/b includes people ages 55-64 and critical infrastructure workers; phase 3 includes people ages 45-54, people living in congregate settings, grocery workers, and residents of correctional facilities</t>
-  </si>
-  <si>
-    <t>Timeframe: as of February 1, 2021</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations: 3; Varies from ACIP Recommendations: 47; Not updated: 1</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations: 5; Varies from ACIP Recommendations: 28; Not updated: 18</t>
-  </si>
-  <si>
-    <t>Phase 1a: 6; Phase 1b: 42; Phase 1c: 3</t>
-  </si>
-  <si>
-    <t>All counties in phase 1b; 8 counties administering to people ages 65+; 7 counties administering to 75+</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 70+; moderate risk health care workers, and first responders only</t>
-  </si>
-  <si>
     <t>Phase 1b; administering to people ages 65+, residents and staff in congregate settings, corrections inmates and staff, law enforcement, continuity of government, K-12 and child care personnel only</t>
   </si>
   <si>
@@ -640,37 +586,109 @@
     <t>Phase 1b; administering to people ages 65+, first responders, K-12 and child care personnel</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 70+ and ambulatory, outpatient, medical, dental, behavioral health clinic, personnel only</t>
-  </si>
-  <si>
-    <t>Phase 1c plus people with certain immune disorders</t>
-  </si>
-  <si>
-    <t>Phase 1b: administering to people ages 65+ and people ages 18-64 with high-risk medical conditions only</t>
-  </si>
-  <si>
     <t>Phase 1b; most vaccine sites administering to people ages 75+ only</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 70+, people with developmental or intellectual disability and other congential condition, and certain K-12 personnel only</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 60+; people ages 16-64 with high-risk medical conditions; people living in certain hihg-risk communities</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 50-59; does not include essential workers</t>
   </si>
   <si>
-    <t>Most counties are in Phase 1a; many counties have moved to Phase 1b</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with high-risk medical conditions</t>
   </si>
   <si>
-    <t>Most counties are in Phase 1b; administering to people ages 70+</t>
-  </si>
-  <si>
     <t>4. Minnesota has made COVID-19 vaccines available to adults 65 years of age or older and K-12 personnel in nine pilot sites across the state.</t>
+  </si>
+  <si>
+    <t>Timeframe: as of February 8, 2021</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations: 30; Varies from ACIP Recommendations: 21</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations: 4; Varies from ACIP Recommendations: 30; Not updated: 17</t>
+  </si>
+  <si>
+    <t>Includes congregate settings: 27; Does not include congregate settings: 24</t>
+  </si>
+  <si>
+    <t>Phase 1a: 4; Phase 1b: 43; Phase 1c: 4</t>
+  </si>
+  <si>
+    <t>Phase 1c; people ages 65-74 only</t>
+  </si>
+  <si>
+    <t>All counties in phase 1b; most prioritizing K-12, child care, protective services personnel; 9 counties administering to people ages 65+; 6 counties administering to 75+</t>
+  </si>
+  <si>
+    <t>Phase 1b statewide: administering to people ages 65+; K-12 and child care, emergency services, food/agriculture personnel. Counties determine when to include additional populations</t>
+  </si>
+  <si>
+    <t>Phase 1c: administering to people ages 65+, K-12 and child care personnel only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65-74; frontline workers expanded to include other health care workers and security personnel</t>
+  </si>
+  <si>
+    <t>Phase 1b-administering to people ages 65+ frontline health care workers, law enforcement and elections officials only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: law enforcement, fire, and correctional officers</t>
+  </si>
+  <si>
+    <t>Follows ACIP age recommendation but differs by limiting essential workers to certain critical sectors; also includes individuals with certain conditions who are currently receiving hospital-based treatment</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 75+, state/federal first responser, corrections, K-12, child care personnel (phase 1b) and people ages 65-74 (phase 1c) only</t>
+  </si>
+  <si>
+    <t>Includes people ages 65+; K-12 and chid care personnel; other groups to be added</t>
+  </si>
+  <si>
+    <t>Includes vulnerable populations</t>
+  </si>
+  <si>
+    <t>Phase 1b: administering to people ages 65+, law enforcement, fire, K-12, transit , food processing personnel only</t>
+  </si>
+  <si>
+    <t>Phase 1b; counties determine which populations to target; all counties include people ages 70+ only; some counties also include law enforcement, public safety, K-12, corrections personnel</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; frontline workers limited to K-12 personnel, first responders, public safety workers, public transit workers, grocery store workers, homeless shelter staff</t>
+  </si>
+  <si>
+    <t>Phase 1b includes people living in homeless shelters</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes frontline workers only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people with medical conditions or disabilities who receive home services; corrections staff</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people age 80+ and K-12, child care personnel only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 60+; people ages 16-64 with high-risk medical conditions; people living in certain high-risk communities</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65+</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 75+; certain high-risk individuals (dialysis, post-transplant, active cancer); and high-risk residents in congregate settings only</t>
+  </si>
+  <si>
+    <t>Most counties are in Phase 1a; some counties have moved to Phase 1b</t>
+  </si>
+  <si>
+    <t>Most counties are in Phase 1b; counties determine when to include additional populations</t>
+  </si>
+  <si>
+    <t>6. North Carolina has proposed an additional phase (Group 4) that includes people ages 16-64 with high-risk medical conditions; essential workers not yet vaccinated; and residents in congregate settings, including homeless shelters and correctional facilities</t>
+  </si>
+  <si>
+    <t>7. Tennessee has proposed two additional phases; phase 2a/b includes people ages 55-64 and critical infrastructure workers; phase 3 includes people ages 45-54, people living in congregate settings, grocery workers, and residents of correctional facilities</t>
   </si>
 </sst>
 </file>
@@ -1511,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1544,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1557,19 +1575,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1589,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1623,13 +1641,13 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1643,10 +1661,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1666,7 +1684,7 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1680,10 +1698,10 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1694,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1703,7 +1721,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,7 +1764,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1777,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1811,7 +1829,7 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
@@ -1851,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1862,16 +1880,16 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1888,7 +1906,7 @@
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
@@ -1908,7 +1926,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1919,50 +1937,50 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1970,22 +1988,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1993,7 +2011,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -2005,18 +2023,18 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -2030,56 +2048,56 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>75</v>
-      </c>
-      <c r="D31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" t="s">
-        <v>77</v>
       </c>
       <c r="F31" t="s">
         <v>30</v>
@@ -2087,16 +2105,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
       </c>
       <c r="F32" t="s">
         <v>208</v>
@@ -2104,39 +2125,39 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
         <v>30</v>
@@ -2147,170 +2168,173 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
+      <c r="E37" t="s">
+        <v>211</v>
+      </c>
       <c r="F37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
         <v>92</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" t="s">
-        <v>95</v>
-      </c>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" t="s">
-        <v>102</v>
-      </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -2318,30 +2342,30 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -2352,53 +2376,53 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
         <v>108</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E46" t="s">
         <v>109</v>
       </c>
-      <c r="C46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" t="s">
-        <v>112</v>
-      </c>
       <c r="F46" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
         <v>113</v>
       </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>116</v>
-      </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -2409,19 +2433,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
         <v>119</v>
       </c>
-      <c r="B49" t="s">
+      <c r="E49" t="s">
         <v>120</v>
-      </c>
-      <c r="C49" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" t="s">
-        <v>123</v>
       </c>
       <c r="F49" t="s">
         <v>30</v>
@@ -2429,36 +2453,36 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
@@ -2466,33 +2490,33 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -2503,13 +2527,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -2520,10 +2544,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
@@ -2532,67 +2556,67 @@
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -2602,32 +2626,37 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/State COVID-19 Vaccine Priority Populations.xlsx
+++ b/State COVID-19 Vaccine Priority Populations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\KCMU\Kendal O\COVID\Metrics\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A9EB6C-3F52-4124-AEAA-8B2D95BB386C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6581A3-4237-4F65-A127-B52DDBCD692D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State COVID-19 Vaccine Priority" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="223">
-  <si>
-    <t>Title: State COVID-19 Vaccine Priority Populations | KFF</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="228">
   <si>
     <t>Location</t>
   </si>
@@ -64,18 +61,9 @@
     <t>Alaska</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: people ages 55-74; people ages 50-54 with 2 or more high-risk health conditions; people ages 16-54 in ""unserved communities""</t>
-  </si>
-  <si>
     <t>Not updated</t>
   </si>
   <si>
-    <t>Phase 1b includes residents in congregate settings (homeless shelters, group homes, etc) and correctional facilities</t>
-  </si>
-  <si>
-    <t>Phase 1b-administering to people ages 65+ only</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t>Includes ACIP recommended groups plus: fire and law enforcement</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: people ages 70-74</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t>Colorado</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: people ages 70-74; frontline workers expanded to include essential officials from executive, legislative and judicial branches of state government, essential frontline journalists, and human services staff</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 60-64</t>
   </si>
   <si>
@@ -118,9 +100,6 @@
     <t>Connecticut</t>
   </si>
   <si>
-    <t>Phase 1b includes individuals in congregate settings</t>
-  </si>
-  <si>
     <t>Delaware</t>
   </si>
   <si>
@@ -139,12 +118,6 @@
     <t>Includes ACIP recommended groups plus: inpatient psychiatric patients</t>
   </si>
   <si>
-    <t>Phase 1b includes those living in intermediate care facilities, group homes, other higher risk congregate settings</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 65+ only</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -214,9 +187,6 @@
     <t>Massachusetts</t>
   </si>
   <si>
-    <t>Follows ACIP age recommendation and includes people ages 16-64 with 1 health condition</t>
-  </si>
-  <si>
     <t>Phase 1a includes people living in congregate settings, including correctional facilities and homeless shelters</t>
   </si>
   <si>
@@ -247,9 +217,6 @@
     <t>Differs from ACIP recommendations: includes people ages 60-69; limited to frontline essential workers; people ages 16-59 with medical conditions not included in Phase 1b</t>
   </si>
   <si>
-    <t>Phase 1b includes people living in congregate settings and correctional facilities</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
@@ -292,9 +259,6 @@
     <t>North Dakota</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with 2 or more high-risk conditions; frontline workers limited to K-12, preschool and child care personnel</t>
-  </si>
-  <si>
     <t>Follows ACIP recommendation to include people ages 16-64 with 1 or more high-risk conditions. Also includes all other essential workers</t>
   </si>
   <si>
@@ -313,9 +277,6 @@
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with at least one high-risk medical conditions</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: personnel in educational settings outside PreK-12, students meeting age requirements</t>
   </si>
   <si>
@@ -373,15 +334,6 @@
     <t>Utah</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: K-12  personnel, non-EMS first responders</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 70+; does not include frontline workers (beyond those included in 1a).</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes tribal reservation communities; people ages 16-69 with underlying medical conditions; racial/ethnic groups at higher risk. Additional age priorities to be determined</t>
-  </si>
-  <si>
     <t>Phase 1c includes people living in congregate settings</t>
   </si>
   <si>
@@ -445,24 +397,12 @@
     <t>*For state COVID-19 vaccine sources, please see:* [https://docs.google.com/document/d/1P_a4N4EslbOFjQ5dNY__BrqT4oKiQMvijdH-tqagEG8/edit](https://docs.google.com/document/d/1P_a4N4EslbOFjQ5dNY__BrqT4oKiQMvijdH-tqagEG8/edit)</t>
   </si>
   <si>
-    <t>1. Delaware has proposed an additional priority phase 2 that includes people ages 50-64 years, people ages 16-49 years with moderate-risk medical conditions, and people living in other congregate settings</t>
-  </si>
-  <si>
-    <t>2. Maryland has proposed an additional priority Phase 2 that includes people ages 16-64 who are at increased risk of COVID-19 illness due to comorbidities, as well as essential workers in critical utilities and other sectors</t>
-  </si>
-  <si>
-    <t>3. Massachusetts has proposed two priority phases, instead of three, before the vaccine becomes available to the general public. However, because the state's priority groups roughly align with the ACIP recommendations, we have presented them within the ACIP framework</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: correctional officers; law enforcement; frontline judiciary staff. Long-term care facility staff and residents limited to nursing homes.</t>
   </si>
   <si>
     <t>Phase 1b includes people living in assisted living facilities, special needs group homes, and high-risk inmates</t>
   </si>
   <si>
-    <t>Phase 1b: administering to people ages 65+ only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 70+</t>
   </si>
   <si>
@@ -472,9 +412,6 @@
     <t>Includes all essential workers</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions only</t>
-  </si>
-  <si>
     <t>Includes other essential workers</t>
   </si>
   <si>
@@ -484,24 +421,9 @@
     <t>Includes people ages 16-64 with high-risk medical conditions</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations, except people ages 70-74 are covered in Phase 1b</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 70+ and K-12 and child care personnel only</t>
-  </si>
-  <si>
-    <t>Includes ACIP recommended groups plus: people ages 60-69</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 75+ only</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations, except people ages 65-74 are included in phase 1b</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 70+ only</t>
-  </si>
-  <si>
     <t>Phase 1b includes residents in congregate settings (homeless shelters, behavioral health treatment centers, and others) and correctional facilities</t>
   </si>
   <si>
@@ -517,39 +439,18 @@
     <t>Phase 1b: administering to first responders, emergency services, and public health infrastructure personnel; people ages 65+; people ages 16-64 with high-risk medical conditions only</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 18-64 with high-risk medical conditions</t>
-  </si>
-  <si>
-    <t>Includes ACIP recommended groups plus: people with disabilities</t>
-  </si>
-  <si>
     <t>Phase 1c includes people who are homeless</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with 2 or more underlying health conditions and their caregivers; and limits frontline workers to first responders, corrections officers/staff</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus; people ages 65-74; people ages 16-64 with high-risk medical conditions</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 75+ and people ages 16-74 with high-risk medical conditions only</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 65+; frontline workers limited to K-12 and child care personnel</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 65+; people ages 16-64 with at least one high-risk medical conditions</t>
   </si>
   <si>
     <t>Differs from ACIP recommendations: includes people receiving home and community-based services; frontline workers expanded to include clergy and staff of early childhood and adult day programs</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: law enforcement and fire personnel</t>
-  </si>
-  <si>
-    <t>Phase 1b; administerting to people ages 75+ only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions;</t>
   </si>
   <si>
@@ -562,75 +463,27 @@
     <t>Differs from ACIP recommended groups: includes people ages 65-69; frontline workers limited to teachers ages 50+. Other groups to be added</t>
   </si>
   <si>
-    <t>Includes people ages 65+; other groups to be added</t>
-  </si>
-  <si>
     <t>In December 2020, the Advisory Committee on Immunization Practices (ACIP) recommended population groups to be included in Phase 1 distribution of the COVID-19 vaccine. These recommended Phase 1 priorities are:</t>
   </si>
   <si>
     <t>On January 12, 2021, the Trump administration recommended that states expand eligibility for the COVID-19 vaccine to all people ages 65+.  A number of states have updated their priority groups to reflect this updated guidance. In this table, however, references to "ACIP Recommendations" or "ACIP recommended groups" are to the December 2020 recommendations.</t>
   </si>
   <si>
-    <t>5. New Hampshire has proposed an additional phase that includes people ages 16-49 with one high risk medical condition</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations: 3; Varies from ACIP Recommendations: 47; Not updated: 1</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 65+, residents and staff in congregate settings, corrections inmates and staff, law enforcement, continuity of government, K-12 and child care personnel only</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendation: includes people ages 65+; frontline workers limited to K-12 and child care, law enforcement and fire personnel, child welfare social workers, and those who work or live in congregate settings where outbreaks occur. Also includes people with disabilities in home settings and their care staff.</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 65+, first responders, K-12 and child care personnel</t>
-  </si>
-  <si>
-    <t>Phase 1b; most vaccine sites administering to people ages 75+ only</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 50-59; does not include essential workers</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with high-risk medical conditions</t>
-  </si>
-  <si>
-    <t>4. Minnesota has made COVID-19 vaccines available to adults 65 years of age or older and K-12 personnel in nine pilot sites across the state.</t>
-  </si>
-  <si>
-    <t>Timeframe: as of February 8, 2021</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations: 30; Varies from ACIP Recommendations: 21</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations: 4; Varies from ACIP Recommendations: 30; Not updated: 17</t>
-  </si>
-  <si>
-    <t>Includes congregate settings: 27; Does not include congregate settings: 24</t>
-  </si>
-  <si>
-    <t>Phase 1a: 4; Phase 1b: 43; Phase 1c: 4</t>
-  </si>
-  <si>
     <t>Phase 1c; people ages 65-74 only</t>
   </si>
   <si>
-    <t>All counties in phase 1b; most prioritizing K-12, child care, protective services personnel; 9 counties administering to people ages 65+; 6 counties administering to 75+</t>
-  </si>
-  <si>
     <t>Phase 1b statewide: administering to people ages 65+; K-12 and child care, emergency services, food/agriculture personnel. Counties determine when to include additional populations</t>
   </si>
   <si>
-    <t>Phase 1c: administering to people ages 65+, K-12 and child care personnel only</t>
-  </si>
-  <si>
-    <t>Includes ACIP recommended groups plus: people ages 65-74; frontline workers expanded to include other health care workers and security personnel</t>
-  </si>
-  <si>
-    <t>Phase 1b-administering to people ages 65+ frontline health care workers, law enforcement and elections officials only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: law enforcement, fire, and correctional officers</t>
   </si>
   <si>
@@ -643,21 +496,6 @@
     <t>Includes people ages 65+; K-12 and chid care personnel; other groups to be added</t>
   </si>
   <si>
-    <t>Includes vulnerable populations</t>
-  </si>
-  <si>
-    <t>Phase 1b: administering to people ages 65+, law enforcement, fire, K-12, transit , food processing personnel only</t>
-  </si>
-  <si>
-    <t>Phase 1b; counties determine which populations to target; all counties include people ages 70+ only; some counties also include law enforcement, public safety, K-12, corrections personnel</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 65+; frontline workers limited to K-12 personnel, first responders, public safety workers, public transit workers, grocery store workers, homeless shelter staff</t>
-  </si>
-  <si>
-    <t>Phase 1b includes people living in homeless shelters</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 65+</t>
   </si>
   <si>
@@ -667,28 +505,205 @@
     <t>Includes ACIP recommended groups plus: people with medical conditions or disabilities who receive home services; corrections staff</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people age 80+ and K-12, child care personnel only</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 60+; people ages 16-64 with high-risk medical conditions; people living in certain high-risk communities</t>
-  </si>
-  <si>
-    <t>Includes ACIP recommended groups plus: people ages 65+</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 75+; certain high-risk individuals (dialysis, post-transplant, active cancer); and high-risk residents in congregate settings only</t>
-  </si>
-  <si>
-    <t>Most counties are in Phase 1a; some counties have moved to Phase 1b</t>
-  </si>
-  <si>
-    <t>Most counties are in Phase 1b; counties determine when to include additional populations</t>
-  </si>
-  <si>
-    <t>6. North Carolina has proposed an additional phase (Group 4) that includes people ages 16-64 with high-risk medical conditions; essential workers not yet vaccinated; and residents in congregate settings, including homeless shelters and correctional facilities</t>
-  </si>
-  <si>
-    <t>7. Tennessee has proposed two additional phases; phase 2a/b includes people ages 55-64 and critical infrastructure workers; phase 3 includes people ages 45-54, people living in congregate settings, grocery workers, and residents of correctional facilities</t>
+    <t>Follows ACIP Recommendations: 3; Varies from ACIP Recommendations: 32; Not updated: 15; N/A: 1</t>
+  </si>
+  <si>
+    <t>Includes congregate settings: 31; Does not include congregate settings: 20</t>
+  </si>
+  <si>
+    <t>Phase 1a: 4; Phase 1b: 41; Phase 1c: 6</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 55+; people ages 40-54 with high-risk medical conditions; frontline workers ages 50+ or 16-49 with high-risk medical conditions; people living in multigenerational households; people ages 16-54 in ""unserved communities""</t>
+  </si>
+  <si>
+    <t>Includes people ages 16-39 with high-risk medical conditions; other frontline essential workers</t>
+  </si>
+  <si>
+    <t>Phase 1b includes residents in acute psychiatric facilities; correctional settings; group homes for individuals with disabilities or mental and behavioral health conditions; homeless and domestic violence shelters; substance misuse and treatment residential facilities; and transitional living homes</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; people ages 50-64 with high-risk medical conditions; K-12 personnel; frontline workers ages 50-64; people living/working in congregate settings</t>
+  </si>
+  <si>
+    <t>Most counties in phase 1b; 2 counties in phase 1c</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+ and K-12 and child care personnel only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommended groups: includes people ages 65+; frontline workers limited to law enforcement, fire, corrections, K-12, child care, and continuity of government personnel</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommended groups: includes people ages 60-64; frontline workers in grocery and agriculture; people ages 16-64 with 2 or more high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; K-12, child care personnel; residents and staff in congregate settings.</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people based on age phased in as follows: 55-64, 45-54; 35-44; and 16-34</t>
+  </si>
+  <si>
+    <t>Phase 1b includes individuals in congregate settings, including halfway homes, inpatient mental health facilities, homeless shelters, domestic violence shelters, substance use and residential treatment facilities, and correctional facilities</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 55-64</t>
+  </si>
+  <si>
+    <t>Phase 1b includes those living in intermediate care facilities, group homes, correctional facilities, other higher risk congregate settings</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 65+, residents and staff in congregate settings, K-12, child care personnel, law enforcement,corrections, grocery store, food packaging, manufacturing, HHS/social services personnel and people ages 16-64 with high-risk medical conditions only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions and people with disabilities</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 60+ only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 55-64 with high-risk medical conditions; pregnant women</t>
+  </si>
+  <si>
+    <t>Phase 1b-administering to people ages 65+; people ages 55-64 with high-risk medical conditions; pregnant women; frontline health care workers, law enforcement,elections officials, K-12, child care personnel only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people based on age phased in as follows: 70+, 60-69; 50-59; 40-49; and 30-39</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Follows ACIP age recommendation and includes people ages 16-64 with high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with at least 2 high-risk medical conditions; residents/staff of affordable senior housing only</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions; K-12, child care, law enforcement, fire, public safety personnel only</t>
+  </si>
+  <si>
+    <t>Phase 1c includes people living in congregate settings and correctional facilities</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommedations: includes people living in congregate settings (residential treatment facilities, homeless shelters, correctional facilities) and people ages 50-64</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; first responders, corrections officers, homeless shelter staff, utility workers, K-12 personnel only</t>
+  </si>
+  <si>
+    <t>Includes people ages 16-64 with high-risk medical conditions; people with disabilities</t>
+  </si>
+  <si>
+    <t>Phase 1b; counties determine which populations to vaccinate</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with 2 or more high-risk medical conditions and their caregivers; and limits frontline workers to first responders, corrections officers/staff</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 75+, people ages 16-74 with high-risk medical conditions, staff in congregate settings, including correctional facilities only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with high-risk medical conditions; frontline workers, including K-12, first responders, corrections, public safety, grocery, restaurant, public transit workers</t>
+  </si>
+  <si>
+    <t>Phase 1b includes people living in homeless shelters and inmates at correctional facilities</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with 2 or more high-risk medical conditions; frontline workers limited to K-12, preschool and child care personnel</t>
+  </si>
+  <si>
+    <t>Phase 1b; providers may be vaccinating different populations and at least some are vaccinating essential workers</t>
+  </si>
+  <si>
+    <t>Phase 1a includes people with developmental disabilities or mental health and substance use disorders who live in group homes or residential facilities</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations:includes people ages 65+; people ages 16-64 with at least one high-risk medical conditions; frontline workers limited to law enforcement, fire, K-12, transit, certain manufacturing, continuity of government personnel</t>
+  </si>
+  <si>
+    <t>Phase 1b: administering to people ages 65+; people ages 16-64 with high-risk medical conditions; law enforcement, fire, K-12, continuity of government personnel</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with high-risk medical conditions; frontline workers; multigenerational household members; people living in low-income senior housing; people experiencing homelessness; people displaced by wildfires</t>
+  </si>
+  <si>
+    <t>Phase 1a includes people living in congregate settings, including group homes for people with developmental disabilities, resdiential behavioral health treatment facilities; Phase 1b include people living in homeless shelfters and congregate senior housing</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people age 65+ and K-12, child care personnel only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; people living in certain high-risk communities; frontline workers limited to law enforcement, fire, corrections personnel</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 50-64; people ages 16-64 with high-risk medical conditions. Does not include essential workers</t>
+  </si>
+  <si>
+    <t>Phase 1b includes residents in homeless shelters and group homes for people with mental health conditions, substance use disorders, developmental disabilities and high-risk inmates</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65+; corrections staff</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups, except people ages 65+</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; certain high-risk individuals (dialysis, post-transplant, active cancer); and high-risk residents in congregate settings only</t>
+  </si>
+  <si>
+    <t>Phase 1b; some counties administering to people ages 70+ only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: K-12, law enforcement, fire, corrections personnel</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; does not include frontline workers (beyond those included in 1a).</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes tribal reservation communities; people ages 16-69 with high-risk medical conditions; racial/ethnic groups at higher risk. Additional age priorities to be determined</t>
+  </si>
+  <si>
+    <t>Includes people ages 65+; other groups will be added as vaccine supplies increase</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: law enforcement, fire, corrections personnel</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; people enrolled in Medicaid long-term care waivers; frontline workers limited to K-12, transit, utility, food supply/grocery workers</t>
+  </si>
+  <si>
+    <t>Phase 1b includes residents in housing for the elderly, people with disabilities, transitional housing, employer housing, homeless shelters, correctional facilities</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions and their caregivers; people receiving certain Medicaid waiver services</t>
+  </si>
+  <si>
+    <t>Phase 1b; counties determine when to include additional populations</t>
+  </si>
+  <si>
+    <t>1. Colorado has proposed an additional phase (Phase 1b.4) that includes people ages 50-59, people ages 16-64 with one high-risk medical condition, other frontline workers</t>
+  </si>
+  <si>
+    <t>2. Delaware has proposed an additional priority phase 2 that includes people ages 50-64 years, people ages 16-49 years with moderate-risk medical conditions, and people living in other congregate settings</t>
+  </si>
+  <si>
+    <t>3. Maine's age-based prioritization takes effect on March 3, 2021.</t>
+  </si>
+  <si>
+    <t>4. Maryland has proposed an additional priority Phase 2 that includes people ages 16-64 who are at increased risk of COVID-19 illness due to comorbidities, as well as essential workers in critical utilities and other sectors</t>
+  </si>
+  <si>
+    <t>5. Massachusetts has proposed two priority phases, instead of three, before the vaccine becomes available to the general public. However, because the state's priority groups roughly align with the ACIP recommendations, we have presented them within the ACIP framework</t>
+  </si>
+  <si>
+    <t>6. New Hampshire has proposed an additional phase that includes people ages 16-49 with one high risk medical condition</t>
+  </si>
+  <si>
+    <t>7. North Carolina has proposed an additional phase (Group 4) that includes people ages 16-64 with high-risk medical conditions; essential workers not yet vaccinated; and residents in congregate settings, including homeless shelters and correctional facilities</t>
+  </si>
+  <si>
+    <t>8. Tennessee has proposed two additional phases; phase 2a/b includes people ages 55-64 and critical infrastructure workers; phase 3 includes people ages 45-54, people living in congregate settings, grocery workers, and residents of correctional facilities</t>
   </si>
 </sst>
 </file>
@@ -1529,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="O18" sqref="O16:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,93 +1556,120 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1635,1028 +1677,1011 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>153</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>156</v>
+      <c r="E10" t="s">
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>179</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>155</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>136</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>184</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>185</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>198</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>205</v>
+      </c>
+      <c r="E42" t="s">
+        <v>206</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>210</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>213</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G47">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>109</v>
+      </c>
+      <c r="E50" t="s">
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="F52" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>131</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>138</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>140</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/State COVID-19 Vaccine Priority Populations.xlsx
+++ b/State COVID-19 Vaccine Priority Populations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\KCMU\Kendal O\COVID\Metrics\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6581A3-4237-4F65-A127-B52DDBCD692D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C107D2-AB82-4BD5-B053-0209B92AD035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State COVID-19 Vaccine Priority" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="242">
   <si>
     <t>Location</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Phase 1b includes those living in congregate settings (homeless shelters, group homes, prisons, jails)</t>
   </si>
   <si>
-    <t>Phase 1a</t>
-  </si>
-  <si>
     <t>Alaska</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>Includes ACIP recommended groups plus: fire, law enforcement, and corrections staff</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes people ages 60+; other priority groups have not been announced</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
@@ -211,12 +205,6 @@
     <t>Montana</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes people ages 70+; American Indians and other people of color at elevated risk for COVID-19 complications; people ages 16-69 with high-risk medical conditions</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 60-69; limited to frontline essential workers; people ages 16-59 with medical conditions not included in Phase 1b</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
@@ -328,9 +316,6 @@
     <t>Texas</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with at least one high-risk medical condition</t>
-  </si>
-  <si>
     <t>Utah</t>
   </si>
   <si>
@@ -406,9 +391,6 @@
     <t>Includes ACIP recommended groups plus: people ages 70+</t>
   </si>
   <si>
-    <t>Includes ACIP recommended frontline workers</t>
-  </si>
-  <si>
     <t>Includes all essential workers</t>
   </si>
   <si>
@@ -427,9 +409,6 @@
     <t>Phase 1b includes residents in congregate settings (homeless shelters, behavioral health treatment centers, and others) and correctional facilities</t>
   </si>
   <si>
-    <t>Phase 1b includes residents in congregate settings and correctional facilities</t>
-  </si>
-  <si>
     <t>Phase 1c</t>
   </si>
   <si>
@@ -454,27 +433,12 @@
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions;</t>
   </si>
   <si>
-    <t>Differs from ACIP recommended groups: includes people ages 65+; people ages 50-64 in multigenerational households; high-risk critical workers ages 50-64 who work in certain congregate settings; people ages 16-69 with 2 or more medical conditions.</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 65+; people ages 50-69 in multigenerational households only</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommended groups: includes people ages 65-69; frontline workers limited to teachers ages 50+. Other groups to be added</t>
-  </si>
-  <si>
     <t>In December 2020, the Advisory Committee on Immunization Practices (ACIP) recommended population groups to be included in Phase 1 distribution of the COVID-19 vaccine. These recommended Phase 1 priorities are:</t>
   </si>
   <si>
     <t>On January 12, 2021, the Trump administration recommended that states expand eligibility for the COVID-19 vaccine to all people ages 65+.  A number of states have updated their priority groups to reflect this updated guidance. In this table, however, references to "ACIP Recommendations" or "ACIP recommended groups" are to the December 2020 recommendations.</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations: 3; Varies from ACIP Recommendations: 47; Not updated: 1</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendation: includes people ages 65+; frontline workers limited to K-12 and child care, law enforcement and fire personnel, child welfare social workers, and those who work or live in congregate settings where outbreaks occur. Also includes people with disabilities in home settings and their care staff.</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations: 30; Varies from ACIP Recommendations: 21</t>
   </si>
   <si>
@@ -490,9 +454,6 @@
     <t>Follows ACIP age recommendation but differs by limiting essential workers to certain critical sectors; also includes individuals with certain conditions who are currently receiving hospital-based treatment</t>
   </si>
   <si>
-    <t>Phase 1c; administering to people ages 75+, state/federal first responser, corrections, K-12, child care personnel (phase 1b) and people ages 65-74 (phase 1c) only</t>
-  </si>
-  <si>
     <t>Includes people ages 65+; K-12 and chid care personnel; other groups to be added</t>
   </si>
   <si>
@@ -505,15 +466,6 @@
     <t>Includes ACIP recommended groups plus: people with medical conditions or disabilities who receive home services; corrections staff</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations: 3; Varies from ACIP Recommendations: 32; Not updated: 15; N/A: 1</t>
-  </si>
-  <si>
-    <t>Includes congregate settings: 31; Does not include congregate settings: 20</t>
-  </si>
-  <si>
-    <t>Phase 1a: 4; Phase 1b: 41; Phase 1c: 6</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 55+; people ages 40-54 with high-risk medical conditions; frontline workers ages 50+ or 16-49 with high-risk medical conditions; people living in multigenerational households; people ages 16-54 in ""unserved communities""</t>
   </si>
   <si>
@@ -523,12 +475,6 @@
     <t>Phase 1b includes residents in acute psychiatric facilities; correctional settings; group homes for individuals with disabilities or mental and behavioral health conditions; homeless and domestic violence shelters; substance misuse and treatment residential facilities; and transitional living homes</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 65+; people ages 50-64 with high-risk medical conditions; K-12 personnel; frontline workers ages 50-64; people living/working in congregate settings</t>
-  </si>
-  <si>
-    <t>Most counties in phase 1b; 2 counties in phase 1c</t>
-  </si>
-  <si>
     <t>Phase 1b; administering to people ages 65+ and K-12 and child care personnel only</t>
   </si>
   <si>
@@ -559,39 +505,21 @@
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions and people with disabilities</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 60+ only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 55-64 with high-risk medical conditions; pregnant women</t>
   </si>
   <si>
     <t>Phase 1b-administering to people ages 65+; people ages 55-64 with high-risk medical conditions; pregnant women; frontline health care workers, law enforcement,elections officials, K-12, child care personnel only</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes people based on age phased in as follows: 70+, 60-69; 50-59; 40-49; and 30-39</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Follows ACIP age recommendation and includes people ages 16-64 with high-risk medical conditions</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with at least 2 high-risk medical conditions; residents/staff of affordable senior housing only</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions; K-12, child care, law enforcement, fire, public safety personnel only</t>
-  </si>
-  <si>
     <t>Phase 1c includes people living in congregate settings and correctional facilities</t>
   </si>
   <si>
-    <t>Differs from ACIP recommedations: includes people living in congregate settings (residential treatment facilities, homeless shelters, correctional facilities) and people ages 50-64</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 65+; first responders, corrections officers, homeless shelter staff, utility workers, K-12 personnel only</t>
-  </si>
-  <si>
     <t>Includes people ages 16-64 with high-risk medical conditions; people with disabilities</t>
   </si>
   <si>
@@ -601,30 +529,18 @@
     <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with 2 or more high-risk medical conditions and their caregivers; and limits frontline workers to first responders, corrections officers/staff</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 75+, people ages 16-74 with high-risk medical conditions, staff in congregate settings, including correctional facilities only</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with high-risk medical conditions; frontline workers, including K-12, first responders, corrections, public safety, grocery, restaurant, public transit workers</t>
-  </si>
-  <si>
     <t>Phase 1b includes people living in homeless shelters and inmates at correctional facilities</t>
   </si>
   <si>
     <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with 2 or more high-risk medical conditions; frontline workers limited to K-12, preschool and child care personnel</t>
   </si>
   <si>
-    <t>Phase 1b; providers may be vaccinating different populations and at least some are vaccinating essential workers</t>
-  </si>
-  <si>
     <t>Phase 1a includes people with developmental disabilities or mental health and substance use disorders who live in group homes or residential facilities</t>
   </si>
   <si>
     <t>Differs from ACIP recommendations:includes people ages 65+; people ages 16-64 with at least one high-risk medical conditions; frontline workers limited to law enforcement, fire, K-12, transit, certain manufacturing, continuity of government personnel</t>
   </si>
   <si>
-    <t>Phase 1b: administering to people ages 65+; people ages 16-64 with high-risk medical conditions; law enforcement, fire, K-12, continuity of government personnel</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with high-risk medical conditions; frontline workers; multigenerational household members; people living in low-income senior housing; people experiencing homelessness; people displaced by wildfires</t>
   </si>
   <si>
@@ -646,27 +562,15 @@
     <t>Includes ACIP recommended groups plus: people ages 65+; corrections staff</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups, except people ages 65+</t>
-  </si>
-  <si>
     <t>Phase 1b; administering to people ages 65+; certain high-risk individuals (dialysis, post-transplant, active cancer); and high-risk residents in congregate settings only</t>
   </si>
   <si>
-    <t>Phase 1b; some counties administering to people ages 70+ only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: K-12, law enforcement, fire, corrections personnel</t>
   </si>
   <si>
     <t>Differs from ACIP recommendations: includes people ages 65+; does not include frontline workers (beyond those included in 1a).</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes tribal reservation communities; people ages 16-69 with high-risk medical conditions; racial/ethnic groups at higher risk. Additional age priorities to be determined</t>
-  </si>
-  <si>
-    <t>Includes people ages 65+; other groups will be added as vaccine supplies increase</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: law enforcement, fire, corrections personnel</t>
   </si>
   <si>
@@ -704,6 +608,144 @@
   </si>
   <si>
     <t>8. Tennessee has proposed two additional phases; phase 2a/b includes people ages 55-64 and critical infrastructure workers; phase 3 includes people ages 45-54, people living in congregate settings, grocery workers, and residents of correctional facilities</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations: 3; Varies from ACIP Recommendations: 48</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations: 3; Varies from ACIP Recommendations: 34; Not updated: 13; N/A: 1</t>
+  </si>
+  <si>
+    <t>Includes congregate settings: 33; Does not include congregate settings: 18</t>
+  </si>
+  <si>
+    <t>Phase 1b: 37; Phase 1c: 13; Open to general population: 1</t>
+  </si>
+  <si>
+    <t>Open to anyone ages 16+</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; K-12, child care, protecitve services personnel</t>
+  </si>
+  <si>
+    <t>Adopts hybrid prioritization model that uses aged-based priority (55-64; 45-54; 35-44; 16-34) along with frontline essential workers</t>
+  </si>
+  <si>
+    <t>Most counties in phase 1b; counties decide which populations to prioritize</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes law enforcement, fire, K-12 personnel over age 50; other priority groups have not been announced</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to K-12, child care personnel, adults with intellectual and developmental disabilities and their caregivers, parents of children with complex medical conditions only</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 70+ only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 40+; people ages 16-39 with certain high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 50+ and people with certain medical conditions (dialysis, sickle cell disease, Down syndrome, post-transplant, active cancer) only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendation: includes people ages 65+; people ages 16-64 with high-risk medical conditions; frontline workers limited to K-12, child care, law enforcement and fire personnel, child welfare social workers, food processing, agriculture, manufacturing. Also includes people with disabilities in home settings and their care staff.</t>
+  </si>
+  <si>
+    <t>Phase 1b includes residents in congregate settings (homeless and domestic violence shelters, residential treatment centers, adult care homes, senior living homes) and correctional facilities</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people based on age phased in as follows: 70+, 60-69; 50-59; 40-49; and 30-39. Also includes K-12, child care personnel</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 60+ and K-12, child care personnel only</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with at least 2 high-risk medical conditions; K-12, child care perosnnel; residents/staff of affordable senior housing only</t>
+  </si>
+  <si>
+    <t>Phase 1b includes people living in homeless shelters and inmates</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 65+ and people ages 50-64 with high risk medical conditions; caregivers of children with special health care needs only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 50-74; people ages 16-64 with high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 50+; people ages 16-64 with high-risk medical conditions; K-12, child care, law enforcement, fire, public safety personnel only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 60+; American Indians and other people of color at elevated risk for COVID-19 complications; people ages 16-69 with high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: limited to frontline essential workers</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommedations: includes people living in congregate settings. Phase 2A includes people ages 50-64 and people ages 16-49 with certain high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Phase 1c includes people living in congregate settings (homeless shelters, residential treatment facilities, correctional facilities)</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 75+, people ages 16-74 with high-risk medical conditions, staff in congregate settings, including correctional facilities, K-12 personnel only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 60+; people ages 16-64 with high-risk medical conditions; frontline workers, including K-12, first responders, corrections, public safety, grocery, restaurant, public transit workers</t>
+  </si>
+  <si>
+    <t>Phase 1c; providers may be vaccinating different populations and at least some are vaccinating essential workers</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 16-64 with certain high-risk medical conditions; certain frontline workers, including child care, funeral services, law enforcement, fire, corrections personnel.  Phase 2 includes people ages 60-64</t>
+  </si>
+  <si>
+    <t>Phase 1c and Phase 2</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to K-12 personnel only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 55-64; people ages 16-54 with high-risk medical conditions; frontline workers</t>
+  </si>
+  <si>
+    <t>Includes people ages 45-54; essential workers</t>
+  </si>
+  <si>
+    <t>Phase 1b includes residents in congregate settings (group homes, homeless shelters, community training homes, correctional facilities) and migrant farmworkers in shared housing</t>
+  </si>
+  <si>
+    <t>Phase 1b; some counties administering to people ages 70+ only and one county has moved to phase 1c</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with at least one high-risk medical condition; K-12, child care personnel</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 50-64; tribal reservation communities; people ages 16-69 with high-risk medical conditions; racial/ethnic groups at higher risk</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 50-64; people ages 16-64 with high-risk medical conditions only</t>
+  </si>
+  <si>
+    <t>Includes people ages 65+; people ages 16-64 with high-risk medical conditions; K-12 personnel; other groups will be added as vaccine supplies increase</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people 65+; people ages 55-64 with high-risk medical conditions; K-12 personnel</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommended groups: includes people ages 65+; people ages 50-64 in multigenerational households; high-risk critical workers ages 50-64 who work in certain congregate settings; people ages 16-69 with 2 or more medical conditions; K-12, child care personnel</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; people ages 50-64 in multigenerational households; K-12 and child care personnel only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommended groups: includes people ages 50-69; people ages 16-49 with high-risk medical conditions; frontline workers limited to teachers ages 40+. Other groups to be added</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 50-64; people ages 16-49 with high-risk medical conditions not covered in phase 1b; people experiencing homelessness; essential workers</t>
+  </si>
+  <si>
+    <t>Phase 1c includes poeple living in congregate settings (homeless shelters, correctional facilities, college dormitories)</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1589,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O16:P18"/>
+      <selection sqref="A1:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,19 +1622,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1612,206 +1654,209 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>203</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1823,175 +1868,172 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -1999,22 +2041,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2022,7 +2064,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -2033,142 +2075,145 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
+      <c r="E25" t="s">
+        <v>214</v>
+      </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -2176,79 +2221,79 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="G36">
         <v>7</v>
@@ -2256,176 +2301,179 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="F40" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="D43" t="s">
-        <v>208</v>
+        <v>229</v>
+      </c>
+      <c r="E43" t="s">
+        <v>230</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
         <v>92</v>
       </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" t="s">
-        <v>96</v>
-      </c>
       <c r="F44" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G45">
         <v>8</v>
@@ -2433,210 +2481,213 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>240</v>
+      </c>
+      <c r="E53" t="s">
+        <v>241</v>
       </c>
       <c r="F53" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -2646,42 +2697,42 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/State COVID-19 Vaccine Priority Populations.xlsx
+++ b/State COVID-19 Vaccine Priority Populations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\KCMU\Kendal O\COVID\Metrics\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C107D2-AB82-4BD5-B053-0209B92AD035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ADD428-6285-467A-BFCE-9ECEF6D04080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35520" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State COVID-19 Vaccine Priority" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="242">
   <si>
     <t>Location</t>
   </si>
@@ -76,12 +76,6 @@
     <t>California</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: people ages 65-74; frontline workers expanded to include those in industrial, commercial, residential, and sheltering facilities and services</t>
-  </si>
-  <si>
-    <t>Includes ACIP recommended groups plus: people ages 50-64</t>
-  </si>
-  <si>
     <t>Phase 1b includes those who are incarcerated and homeless</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Includes ACIP recommended groups plus: people ages 65+ and their caregivers; fire and law enforcement</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendation: expanded to include all essential workers</t>
-  </si>
-  <si>
     <t>Hawaii</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t>North Dakota</t>
   </si>
   <si>
-    <t>Follows ACIP recommendation to include people ages 16-64 with 1 or more high-risk conditions. Also includes all other essential workers</t>
-  </si>
-  <si>
     <t>Phase 1b includes people living in  congregate settings (correctional facilities, group homes, treatment centers, homeless shelters, etc.)</t>
   </si>
   <si>
@@ -310,9 +298,6 @@
     <t>Differs from ACIP recommendations: includes people ages 65-74; frontline workers limited to K-12 and child care personnel, first responders.</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes people ages 16-64 with high-risk medical conditions but does not include other essential workers</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -397,12 +382,6 @@
     <t>Includes other essential workers</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions; and fire/law enforcement personnel only</t>
-  </si>
-  <si>
-    <t>Includes people ages 16-64 with high-risk medical conditions</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations, except people ages 65-74 are included in phase 1b</t>
   </si>
   <si>
@@ -415,9 +394,6 @@
     <t>Includes ACIP recommended groups plus: expanded to include most other essential worker categories; people ages 16-74 with at least 2 high-risk medical conditions; and residents and staff in affordable senior housing</t>
   </si>
   <si>
-    <t>Phase 1b: administering to first responders, emergency services, and public health infrastructure personnel; people ages 65+; people ages 16-64 with high-risk medical conditions only</t>
-  </si>
-  <si>
     <t>Phase 1c includes people who are homeless</t>
   </si>
   <si>
@@ -427,9 +403,6 @@
     <t>Includes ACIP recommended groups plus: people ages 65+; people ages 16-64 with at least one high-risk medical conditions</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes people receiving home and community-based services; frontline workers expanded to include clergy and staff of early childhood and adult day programs</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions;</t>
   </si>
   <si>
@@ -445,39 +418,21 @@
     <t>Phase 1c; people ages 65-74 only</t>
   </si>
   <si>
-    <t>Phase 1b statewide: administering to people ages 65+; K-12 and child care, emergency services, food/agriculture personnel. Counties determine when to include additional populations</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: law enforcement, fire, and correctional officers</t>
   </si>
   <si>
     <t>Follows ACIP age recommendation but differs by limiting essential workers to certain critical sectors; also includes individuals with certain conditions who are currently receiving hospital-based treatment</t>
   </si>
   <si>
-    <t>Includes people ages 65+; K-12 and chid care personnel; other groups to be added</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 65+</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes frontline workers only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people with medical conditions or disabilities who receive home services; corrections staff</t>
   </si>
   <si>
     <t>Differs from ACIP recommendations: includes people ages 55+; people ages 40-54 with high-risk medical conditions; frontline workers ages 50+ or 16-49 with high-risk medical conditions; people living in multigenerational households; people ages 16-54 in ""unserved communities""</t>
   </si>
   <si>
-    <t>Includes people ages 16-39 with high-risk medical conditions; other frontline essential workers</t>
-  </si>
-  <si>
     <t>Phase 1b includes residents in acute psychiatric facilities; correctional settings; group homes for individuals with disabilities or mental and behavioral health conditions; homeless and domestic violence shelters; substance misuse and treatment residential facilities; and transitional living homes</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 65+ and K-12 and child care personnel only</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommended groups: includes people ages 65+; frontline workers limited to law enforcement, fire, corrections, K-12, child care, and continuity of government personnel</t>
   </si>
   <si>
@@ -505,12 +460,6 @@
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions and people with disabilities</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 55-64 with high-risk medical conditions; pregnant women</t>
-  </si>
-  <si>
-    <t>Phase 1b-administering to people ages 65+; people ages 55-64 with high-risk medical conditions; pregnant women; frontline health care workers, law enforcement,elections officials, K-12, child care personnel only</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -550,9 +499,6 @@
     <t>Phase 1b; administering to people age 65+ and K-12, child care personnel only</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes people ages 65+; people living in certain high-risk communities; frontline workers limited to law enforcement, fire, corrections personnel</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 50-64; people ages 16-64 with high-risk medical conditions. Does not include essential workers</t>
   </si>
   <si>
@@ -562,9 +508,6 @@
     <t>Includes ACIP recommended groups plus: people ages 65+; corrections staff</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 65+; certain high-risk individuals (dialysis, post-transplant, active cancer); and high-risk residents in congregate settings only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: K-12, law enforcement, fire, corrections personnel</t>
   </si>
   <si>
@@ -583,9 +526,6 @@
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions and their caregivers; people receiving certain Medicaid waiver services</t>
   </si>
   <si>
-    <t>Phase 1b; counties determine when to include additional populations</t>
-  </si>
-  <si>
     <t>1. Colorado has proposed an additional phase (Phase 1b.4) that includes people ages 50-59, people ages 16-64 with one high-risk medical condition, other frontline workers</t>
   </si>
   <si>
@@ -613,15 +553,9 @@
     <t>Follows ACIP Recommendations: 3; Varies from ACIP Recommendations: 48</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations: 3; Varies from ACIP Recommendations: 34; Not updated: 13; N/A: 1</t>
-  </si>
-  <si>
     <t>Includes congregate settings: 33; Does not include congregate settings: 18</t>
   </si>
   <si>
-    <t>Phase 1b: 37; Phase 1c: 13; Open to general population: 1</t>
-  </si>
-  <si>
     <t>Open to anyone ages 16+</t>
   </si>
   <si>
@@ -631,24 +565,6 @@
     <t>Adopts hybrid prioritization model that uses aged-based priority (55-64; 45-54; 35-44; 16-34) along with frontline essential workers</t>
   </si>
   <si>
-    <t>Most counties in phase 1b; counties decide which populations to prioritize</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes law enforcement, fire, K-12 personnel over age 50; other priority groups have not been announced</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to K-12, child care personnel, adults with intellectual and developmental disabilities and their caregivers, parents of children with complex medical conditions only</t>
-  </si>
-  <si>
-    <t>Phase 1c; administering to people ages 70+ only</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 40+; people ages 16-39 with certain high-risk medical conditions</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 50+ and people with certain medical conditions (dialysis, sickle cell disease, Down syndrome, post-transplant, active cancer) only</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendation: includes people ages 65+; people ages 16-64 with high-risk medical conditions; frontline workers limited to K-12, child care, law enforcement and fire personnel, child welfare social workers, food processing, agriculture, manufacturing. Also includes people with disabilities in home settings and their care staff.</t>
   </si>
   <si>
@@ -673,9 +589,6 @@
     <t>Includes ACIP recommended groups plus: people ages 50-74; people ages 16-64 with high-risk medical conditions</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 50+; people ages 16-64 with high-risk medical conditions; K-12, child care, law enforcement, fire, public safety personnel only</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 60+; American Indians and other people of color at elevated risk for COVID-19 complications; people ages 16-69 with high-risk medical conditions</t>
   </si>
   <si>
@@ -694,12 +607,6 @@
     <t>Differs from ACIP recommendations: includes people ages 60+; people ages 16-64 with high-risk medical conditions; frontline workers, including K-12, first responders, corrections, public safety, grocery, restaurant, public transit workers</t>
   </si>
   <si>
-    <t>Phase 1c; providers may be vaccinating different populations and at least some are vaccinating essential workers</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 16-64 with certain high-risk medical conditions; certain frontline workers, including child care, funeral services, law enforcement, fire, corrections personnel.  Phase 2 includes people ages 60-64</t>
-  </si>
-  <si>
     <t>Phase 1c and Phase 2</t>
   </si>
   <si>
@@ -709,15 +616,9 @@
     <t>Differs from ACIP recommendations: includes people ages 55-64; people ages 16-54 with high-risk medical conditions; frontline workers</t>
   </si>
   <si>
-    <t>Includes people ages 45-54; essential workers</t>
-  </si>
-  <si>
     <t>Phase 1b includes residents in congregate settings (group homes, homeless shelters, community training homes, correctional facilities) and migrant farmworkers in shared housing</t>
   </si>
   <si>
-    <t>Phase 1b; some counties administering to people ages 70+ only and one county has moved to phase 1c</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with at least one high-risk medical condition; K-12, child care personnel</t>
   </si>
   <si>
@@ -727,18 +628,6 @@
     <t>Phase 1c; administering to people ages 50-64; people ages 16-64 with high-risk medical conditions only</t>
   </si>
   <si>
-    <t>Includes people ages 65+; people ages 16-64 with high-risk medical conditions; K-12 personnel; other groups will be added as vaccine supplies increase</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people 65+; people ages 55-64 with high-risk medical conditions; K-12 personnel</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommended groups: includes people ages 65+; people ages 50-64 in multigenerational households; high-risk critical workers ages 50-64 who work in certain congregate settings; people ages 16-69 with 2 or more medical conditions; K-12, child care personnel</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 65+; people ages 50-64 in multigenerational households; K-12 and child care personnel only</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommended groups: includes people ages 50-69; people ages 16-49 with high-risk medical conditions; frontline workers limited to teachers ages 40+. Other groups to be added</t>
   </si>
   <si>
@@ -746,6 +635,117 @@
   </si>
   <si>
     <t>Phase 1c includes poeple living in congregate settings (homeless shelters, correctional facilities, college dormitories)</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations: 2; Varies from ACIP Recommendations: 39; Not updated: 9; N/A: 1</t>
+  </si>
+  <si>
+    <t>Phase 1b: 30; Phase 1c: 19; Open to general population: 2</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations plus: people with intellectual and developmental disabilities</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 16-39 with high-risk medical conditions; other frontline essential workers</t>
+  </si>
+  <si>
+    <t>Most counties in phase 1c (9 administering to people ages 55-64; 2 administering to people age 16+); counties decide which populations to prioritize</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions; frontline workers expanded to include those in industrial, commercial, residential, and sheltering facilities and services</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 50-64 and other essential workers</t>
+  </si>
+  <si>
+    <t>Phase 1b statewide: administering to people ages 65+; people ages 16-64 with high-risk medical conditions; K-12 and child care, emergency services, food/agriculture, transit personnel. Counties determine when to include additional populations</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 60-64; law enforcement, fire, K-12 personnel over age 50; other priority groups have not been announced</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendation: includes parents of children with high-risk medical conditions; people with intellectual and developmental disabilities and their caregivers; K-12 personnel</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 55-64; people ages 16-64 with high-risk medical conditions; adults with disabilities</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 55-64 with high-risk medical conditions only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 40+; people ages 16-39 with certain high-risk medical conditions; K-12 personnel</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 45+; people with certain medical conditions; K-12 personnel only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions; pregnant women</t>
+  </si>
+  <si>
+    <t>Phase 1b-administering to people ages 65+; people ages 16+ with high-risk medical conditions; pregnant women; frontline health care workers, law enforcement, elections officials, K-12, child care, certain election personnel only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 45-64 with 1 high-risk medical condition; people ages 16-44 with 2+ high-risk medical conditions; people with rare conditions or disabilities that put them at higher risk; people ages 50-64 in multi-generational housing</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 50-64; other essential workers</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions; people living in homeless shelters; tribal communities; migrant workers; K-12, transit, fire/law enforcement personnel only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups, except people ages 65-74 are included in phase 1b</t>
+  </si>
+  <si>
+    <t>Phase 1c includes residents in congregate settings, including homeless shelters and correctional facilities</t>
+  </si>
+  <si>
+    <t>Includes people ages 16-64 with 1 or more high-risk medical condition and other essential workers</t>
+  </si>
+  <si>
+    <t>Phase 1c; providers may be vaccinating different populations</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 16-64 with certain high-risk medical conditions; certain frontline workers, including child care, funeral services, law enforcement, fire, corrections personnel.  Phase 2 includes people ages 50-64</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people receiving home and community-based services; frontline workers expanded to include clergy, and staff of early childhood and adult day programs</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 65+; people living in certain high-risk communities; frontline workers limited to law enforcement, fire, corrections, K-12 personnel</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 60-64 and people ages 16-64 with high-risk medical conditions only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 45-54; other essential workers</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 16-64 with high-risk medical conditions; parents/caregivers of medically fragile chidlren; people living with a pregnant woman</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 50-64</t>
+  </si>
+  <si>
+    <t>Includes people ages 65+; people ages 16-64 with high-risk medical conditions; K-12, public safety personnel; other groups will be added as vaccine supplies increase</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations; includes people ages 60-64</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes all essential workers</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommended groups: includes people ages 65+; people ages 50-64 in multigenerational households; high-risk critical workers in certain congregate settings; people ages 16-69 with 2 or more medical conditions; K-12, child care personnel</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 65+; people ages 50-64 in multigenerational households; people ages 16-64 with disability that puts them at high-risk or who are pregnant; high-risk critical workers; K-12 and child care personnel only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 16-64 with high-risk medical conditions only</t>
+  </si>
+  <si>
+    <t>Phase 1c; counties determine when to include additional populations</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1589,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G53"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,19 +1622,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1648,13 +1648,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1665,16 +1665,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,16 +1685,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1708,13 +1708,13 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1725,33 +1725,33 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1759,42 +1759,42 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1802,61 +1802,61 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1868,172 +1868,172 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2041,22 +2041,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -2076,144 +2076,144 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="E30" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -2221,304 +2221,304 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>224</v>
+      </c>
+      <c r="E36" t="s">
+        <v>225</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" t="s">
-        <v>92</v>
-      </c>
       <c r="F44" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F47" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -2527,167 +2527,167 @@
         <v>235</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="E53" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" t="s">
         <v>241</v>
-      </c>
-      <c r="F53" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -2697,42 +2697,42 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/State COVID-19 Vaccine Priority Populations.xlsx
+++ b/State COVID-19 Vaccine Priority Populations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\KCMU\Kendal O\COVID\Metrics\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ADD428-6285-467A-BFCE-9ECEF6D04080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB25B7-0BC9-45E8-902B-4374B232D52D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35520" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1440" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State COVID-19 Vaccine Priority" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="223">
   <si>
     <t>Location</t>
   </si>
@@ -208,9 +208,6 @@
     <t>New Hampshire</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations and includes: people ages 50-74; frontline workers limited to  K-12 and childcare personnel</t>
-  </si>
-  <si>
     <t>Phase 1b includes residents of facilities for people with intellectual and developmental disabilities</t>
   </si>
   <si>
@@ -337,36 +334,6 @@
     <t>Includes ACIP recommended groups plus: law enforcement</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - Phase 1a: Health care workers and long-term care facility residents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - Phase 1b: people ages 75+ years and non–health care frontline essential workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - Phase 1c: people ages 65–74 years, persons ages 16–64 years with high-risk medical conditions, and essential workers not included in Phase 1b</t>
-  </si>
-  <si>
-    <t>*Per CDC guidance, based on local, state, or territorial epidemiology and implementation considerations, jurisdictions may choose to vaccinate persons who reside at congregate living facilities (e.g., correctional or detention facilities, homeless shelters, group homes, or employer provided shared housing units) at the same time as the frontline staff, because of their shared increased risk of disease.</t>
-  </si>
-  <si>
-    <t>Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KFF analysis of state websites and COVID-19 vaccine plans. </t>
-  </si>
-  <si>
-    <t>*For state COVID-19 vaccine sources, please see:* [https://docs.google.com/document/d/1P_a4N4EslbOFjQ5dNY__BrqT4oKiQMvijdH-tqagEG8/edit](https://docs.google.com/document/d/1P_a4N4EslbOFjQ5dNY__BrqT4oKiQMvijdH-tqagEG8/edit)</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: correctional officers; law enforcement; frontline judiciary staff. Long-term care facility staff and residents limited to nursing homes.</t>
   </si>
   <si>
@@ -382,18 +349,12 @@
     <t>Includes other essential workers</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations, except people ages 65-74 are included in phase 1b</t>
-  </si>
-  <si>
     <t>Phase 1b includes residents in congregate settings (homeless shelters, behavioral health treatment centers, and others) and correctional facilities</t>
   </si>
   <si>
     <t>Phase 1c</t>
   </si>
   <si>
-    <t>Includes ACIP recommended groups plus: expanded to include most other essential worker categories; people ages 16-74 with at least 2 high-risk medical conditions; and residents and staff in affordable senior housing</t>
-  </si>
-  <si>
     <t>Phase 1c includes people who are homeless</t>
   </si>
   <si>
@@ -406,24 +367,12 @@
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions;</t>
   </si>
   <si>
-    <t>In December 2020, the Advisory Committee on Immunization Practices (ACIP) recommended population groups to be included in Phase 1 distribution of the COVID-19 vaccine. These recommended Phase 1 priorities are:</t>
-  </si>
-  <si>
-    <t>On January 12, 2021, the Trump administration recommended that states expand eligibility for the COVID-19 vaccine to all people ages 65+.  A number of states have updated their priority groups to reflect this updated guidance. In this table, however, references to "ACIP Recommendations" or "ACIP recommended groups" are to the December 2020 recommendations.</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations: 30; Varies from ACIP Recommendations: 21</t>
   </si>
   <si>
-    <t>Phase 1c; people ages 65-74 only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: law enforcement, fire, and correctional officers</t>
   </si>
   <si>
-    <t>Follows ACIP age recommendation but differs by limiting essential workers to certain critical sectors; also includes individuals with certain conditions who are currently receiving hospital-based treatment</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people with medical conditions or disabilities who receive home services; corrections staff</t>
   </si>
   <si>
@@ -436,9 +385,6 @@
     <t>Differs from ACIP recommended groups: includes people ages 65+; frontline workers limited to law enforcement, fire, corrections, K-12, child care, and continuity of government personnel</t>
   </si>
   <si>
-    <t>Differs from ACIP recommended groups: includes people ages 60-64; frontline workers in grocery and agriculture; people ages 16-64 with 2 or more high-risk medical conditions</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 65+; K-12, child care personnel; residents and staff in congregate settings.</t>
   </si>
   <si>
@@ -448,33 +394,21 @@
     <t>Phase 1b includes individuals in congregate settings, including halfway homes, inpatient mental health facilities, homeless shelters, domestic violence shelters, substance use and residential treatment facilities, and correctional facilities</t>
   </si>
   <si>
-    <t>Phase 1c; administering to people ages 55-64</t>
-  </si>
-  <si>
     <t>Phase 1b includes those living in intermediate care facilities, group homes, correctional facilities, other higher risk congregate settings</t>
   </si>
   <si>
-    <t>Phase 1c; administering to people ages 65+, residents and staff in congregate settings, K-12, child care personnel, law enforcement,corrections, grocery store, food packaging, manufacturing, HHS/social services personnel and people ages 16-64 with high-risk medical conditions only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions and people with disabilities</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Follows ACIP age recommendation and includes people ages 16-64 with high-risk medical conditions</t>
-  </si>
-  <si>
     <t>Phase 1c includes people living in congregate settings and correctional facilities</t>
   </si>
   <si>
     <t>Includes people ages 16-64 with high-risk medical conditions; people with disabilities</t>
   </si>
   <si>
-    <t>Phase 1b; counties determine which populations to vaccinate</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 65+; people ages 16-64 with 2 or more high-risk medical conditions and their caregivers; and limits frontline workers to first responders, corrections officers/staff</t>
   </si>
   <si>
@@ -496,9 +430,6 @@
     <t>Phase 1a includes people living in congregate settings, including group homes for people with developmental disabilities, resdiential behavioral health treatment facilities; Phase 1b include people living in homeless shelfters and congregate senior housing</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people age 65+ and K-12, child care personnel only</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 50-64; people ages 16-64 with high-risk medical conditions. Does not include essential workers</t>
   </si>
   <si>
@@ -526,36 +457,9 @@
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions and their caregivers; people receiving certain Medicaid waiver services</t>
   </si>
   <si>
-    <t>1. Colorado has proposed an additional phase (Phase 1b.4) that includes people ages 50-59, people ages 16-64 with one high-risk medical condition, other frontline workers</t>
-  </si>
-  <si>
-    <t>2. Delaware has proposed an additional priority phase 2 that includes people ages 50-64 years, people ages 16-49 years with moderate-risk medical conditions, and people living in other congregate settings</t>
-  </si>
-  <si>
-    <t>3. Maine's age-based prioritization takes effect on March 3, 2021.</t>
-  </si>
-  <si>
-    <t>4. Maryland has proposed an additional priority Phase 2 that includes people ages 16-64 who are at increased risk of COVID-19 illness due to comorbidities, as well as essential workers in critical utilities and other sectors</t>
-  </si>
-  <si>
-    <t>5. Massachusetts has proposed two priority phases, instead of three, before the vaccine becomes available to the general public. However, because the state's priority groups roughly align with the ACIP recommendations, we have presented them within the ACIP framework</t>
-  </si>
-  <si>
-    <t>6. New Hampshire has proposed an additional phase that includes people ages 16-49 with one high risk medical condition</t>
-  </si>
-  <si>
-    <t>7. North Carolina has proposed an additional phase (Group 4) that includes people ages 16-64 with high-risk medical conditions; essential workers not yet vaccinated; and residents in congregate settings, including homeless shelters and correctional facilities</t>
-  </si>
-  <si>
-    <t>8. Tennessee has proposed two additional phases; phase 2a/b includes people ages 55-64 and critical infrastructure workers; phase 3 includes people ages 45-54, people living in congregate settings, grocery workers, and residents of correctional facilities</t>
-  </si>
-  <si>
     <t>Follows ACIP Recommendations: 3; Varies from ACIP Recommendations: 48</t>
   </si>
   <si>
-    <t>Includes congregate settings: 33; Does not include congregate settings: 18</t>
-  </si>
-  <si>
     <t>Open to anyone ages 16+</t>
   </si>
   <si>
@@ -574,18 +478,9 @@
     <t>Differs from ACIP recommendations: includes people based on age phased in as follows: 70+, 60-69; 50-59; 40-49; and 30-39. Also includes K-12, child care personnel</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 60+ and K-12, child care personnel only</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with at least 2 high-risk medical conditions; K-12, child care perosnnel; residents/staff of affordable senior housing only</t>
-  </si>
-  <si>
     <t>Phase 1b includes people living in homeless shelters and inmates</t>
   </si>
   <si>
-    <t>Phase 1c; administering to people ages 65+ and people ages 50-64 with high risk medical conditions; caregivers of children with special health care needs only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 50-74; people ages 16-64 with high-risk medical conditions</t>
   </si>
   <si>
@@ -601,12 +496,6 @@
     <t>Phase 1c includes people living in congregate settings (homeless shelters, residential treatment facilities, correctional facilities)</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 75+, people ages 16-74 with high-risk medical conditions, staff in congregate settings, including correctional facilities, K-12 personnel only</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 60+; people ages 16-64 with high-risk medical conditions; frontline workers, including K-12, first responders, corrections, public safety, grocery, restaurant, public transit workers</t>
-  </si>
-  <si>
     <t>Phase 1c and Phase 2</t>
   </si>
   <si>
@@ -628,30 +517,15 @@
     <t>Phase 1c; administering to people ages 50-64; people ages 16-64 with high-risk medical conditions only</t>
   </si>
   <si>
-    <t>Differs from ACIP recommended groups: includes people ages 50-69; people ages 16-49 with high-risk medical conditions; frontline workers limited to teachers ages 40+. Other groups to be added</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 50-64; people ages 16-49 with high-risk medical conditions not covered in phase 1b; people experiencing homelessness; essential workers</t>
   </si>
   <si>
     <t>Phase 1c includes poeple living in congregate settings (homeless shelters, correctional facilities, college dormitories)</t>
   </si>
   <si>
-    <t>Follows ACIP Recommendations: 2; Varies from ACIP Recommendations: 39; Not updated: 9; N/A: 1</t>
-  </si>
-  <si>
-    <t>Phase 1b: 30; Phase 1c: 19; Open to general population: 2</t>
-  </si>
-  <si>
-    <t>Follows ACIP Recommendations plus: people with intellectual and developmental disabilities</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 16-39 with high-risk medical conditions; other frontline essential workers</t>
   </si>
   <si>
-    <t>Most counties in phase 1c (9 administering to people ages 55-64; 2 administering to people age 16+); counties decide which populations to prioritize</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions; frontline workers expanded to include those in industrial, commercial, residential, and sheltering facilities and services</t>
   </si>
   <si>
@@ -670,30 +544,18 @@
     <t>Differs from ACIP recommendations: includes people ages 55-64; people ages 16-64 with high-risk medical conditions; adults with disabilities</t>
   </si>
   <si>
-    <t>Phase 1c; administering to people ages 55-64 with high-risk medical conditions only</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 40+; people ages 16-39 with certain high-risk medical conditions; K-12 personnel</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 45+; people with certain medical conditions; K-12 personnel only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 16-64 with high-risk medical conditions; pregnant women</t>
   </si>
   <si>
-    <t>Phase 1b-administering to people ages 65+; people ages 16+ with high-risk medical conditions; pregnant women; frontline health care workers, law enforcement, elections officials, K-12, child care, certain election personnel only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups plus: people ages 65-74; people ages 45-64 with 1 high-risk medical condition; people ages 16-44 with 2+ high-risk medical conditions; people with rare conditions or disabilities that put them at higher risk; people ages 50-64 in multi-generational housing</t>
   </si>
   <si>
     <t>Differs from ACIP recommendations: includes people ages 50-64; other essential workers</t>
   </si>
   <si>
-    <t>Phase 1b; administering to people ages 65+; people ages 16-64 with high-risk medical conditions; people living in homeless shelters; tribal communities; migrant workers; K-12, transit, fire/law enforcement personnel only</t>
-  </si>
-  <si>
     <t>Includes ACIP recommended groups, except people ages 65-74 are included in phase 1b</t>
   </si>
   <si>
@@ -703,12 +565,6 @@
     <t>Includes people ages 16-64 with 1 or more high-risk medical condition and other essential workers</t>
   </si>
   <si>
-    <t>Phase 1c; providers may be vaccinating different populations</t>
-  </si>
-  <si>
-    <t>Differs from ACIP recommendations: includes people ages 16-64 with certain high-risk medical conditions; certain frontline workers, including child care, funeral services, law enforcement, fire, corrections personnel.  Phase 2 includes people ages 50-64</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people receiving home and community-based services; frontline workers expanded to include clergy, and staff of early childhood and adult day programs</t>
   </si>
   <si>
@@ -721,31 +577,118 @@
     <t>Differs from ACIP recommendations: includes people ages 45-54; other essential workers</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations: includes people ages 16-64 with high-risk medical conditions; parents/caregivers of medically fragile chidlren; people living with a pregnant woman</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 50-64</t>
   </si>
   <si>
     <t>Includes people ages 65+; people ages 16-64 with high-risk medical conditions; K-12, public safety personnel; other groups will be added as vaccine supplies increase</t>
   </si>
   <si>
-    <t>Differs from ACIP recommendations; includes people ages 60-64</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes all essential workers</t>
   </si>
   <si>
-    <t>Differs from ACIP recommended groups: includes people ages 65+; people ages 50-64 in multigenerational households; high-risk critical workers in certain congregate settings; people ages 16-69 with 2 or more medical conditions; K-12, child care personnel</t>
-  </si>
-  <si>
-    <t>Phase 1b; administering to people ages 65+; people ages 50-64 in multigenerational households; people ages 16-64 with disability that puts them at high-risk or who are pregnant; high-risk critical workers; K-12 and child care personnel only</t>
-  </si>
-  <si>
     <t>Differs from ACIP recommendations: includes people ages 16-64 with high-risk medical conditions only</t>
   </si>
   <si>
-    <t>Phase 1c; counties determine when to include additional populations</t>
+    <t>Projected Date to Expand Eligibility to Everyone Ages 16+</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations: 1; Varies from ACIP Recommendations: 43; Not updated: 6; N/A: 1</t>
+  </si>
+  <si>
+    <t>Includes congregate settings: 36; Does not include congregate settings: 15</t>
+  </si>
+  <si>
+    <t>Phase 1b: 10; Phase 1c: 26; Open to general population: 15</t>
+  </si>
+  <si>
+    <t>States that have announced a date: 47</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations plus: people ages 55-64; people with intellectual and developmental disabilities</t>
+  </si>
+  <si>
+    <t>Phase 1c includes people living in high-risk settings (incarcerated, group homes, congregate settings, crowded housing and student housing)</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommended groups: includes people ages 50-64; frontline workers; people ages 16-64 with high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 45-64</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 50-64</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 65+, residents and staff in congregate settings, K-12, child care personnel, law enforcement,corrections, grocery store, food packaging, manufacturing, HHS/social services, public/non-public transportation, medai personnel and people ages 16-64 with high-risk medical conditions only</t>
+  </si>
+  <si>
+    <t>Includes people ages 40-49</t>
+  </si>
+  <si>
+    <t>Follows ACIP Recommendations plus: people ages 45-64</t>
+  </si>
+  <si>
+    <t>Phase 1c include people living in congregate setting (emergency shelters, transitional housing, dormitory housing for workers, correctional facilities, group housing for persons in substance misuse treatment or with mental illness, residential treatment or recovery facility, and dormitory housing for students)</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 45-64 and people living in congregate settings only</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 60-64. Phase 2 includes people ages 40-59</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people ages 50+ and K-12, child care personnel only</t>
+  </si>
+  <si>
+    <t>Follows ACIP age recommendation but differs by limiting essential workers to certain critical sectors; also includes individuals with certain conditions who are currently receiving hospital-based treatment. Phase 2a includes people ages 60-64; Phase 2b include people ages 16-59 with high-risk medical conditions; certain people ages 16-59 with disabilities</t>
+  </si>
+  <si>
+    <t>Phase 1c and Phase 2a/b</t>
+  </si>
+  <si>
+    <t>Includes ACIP recommended groups plus: people ages 60-74; frontline workers expanded to include most other essential worker categories; people ages 16-74 with at least 2 high-risk medical conditions; and residents and staff in affordable senior housing</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 55-59; people ages 16-64 with high-risk medical conditions</t>
+  </si>
+  <si>
+    <t>Phase 1c; administering to people ages 65+ and people ages 16-64 with high risk medical conditions; caregivers of children with special health care needs only</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommended groups, includes: certain essential workers;, higher eduction and library personnel; people at increased risk of acquiring or transmitting COVID-19, with emphasis on racial/ethnic minorities; people experiencing homelessness</t>
+  </si>
+  <si>
+    <t>Phase 1c; some areas may be vaccinating people ages 50-64</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations and includes: people ages 50-64; frontline workers limited to  K-12 and childcare personnel</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 50+; people ages 16-64 with high-risk medical conditions; frontline workers, including K-12, first responders, corrections, public safety, grocery, restaurant, public transit workers</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 16-64 with certain high-risk medical conditions; certain frontline workers, including child care, funeral services, law enforcement, fire, corrections personnel.  Phase 2 includes people ages 40-64</t>
+  </si>
+  <si>
+    <t>Phase 1b; administering to people age 65+; K-12, child care, migrant and agricultural, food processing personnel; people ages 45-64 with high-risk medical conditions; people experiencing homelessness; people in low-income senior housing; people displaced by wildfires, pregnant women 16+</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations: includes people ages 16-64 with high-risk medical conditions; parents/caregivers of medically fragile chidlren; people living with a pregnant woman. Phase 2a/b includes people ages 55-64 and critical infrastructure workers</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommendations; includes people based on age phased in as follows: 60-64; 50-59; 40-49; 30-39; 16+. Also includes people of color ages 16+ and their household members.</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommended groups: includes people ages 60+; people ages 50-64 in multigenerational households; high-risk critical workers in certain congregate settings; people ages 16-69 with 2 or more medical conditions; K-12, child care personnel</t>
+  </si>
+  <si>
+    <t>Differs from ACIP recommended groups: includes people ages 50-69; people ages 16-49 with high-risk medical conditions; frontline workers limited to teachers ages 40+</t>
+  </si>
+  <si>
+    <t>Includes essential workers</t>
+  </si>
+  <si>
+    <t>Phase 1c; some counties are vaccinating the general population ages 18+</t>
   </si>
 </sst>
 </file>
@@ -1229,8 +1172,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1586,15 +1530,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1614,30 +1558,36 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1648,16 +1598,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1665,19 +1615,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1685,22 +1638,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5">
+        <v>146</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44279</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1713,11 +1669,17 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
+      <c r="E6" t="s">
+        <v>195</v>
+      </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1725,19 +1687,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1745,19 +1710,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8">
+        <v>110</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1765,19 +1733,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1788,19 +1759,22 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
+        <v>164</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44292</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1814,13 +1788,16 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1828,16 +1805,19 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1845,16 +1825,19 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1865,13 +1848,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G14" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1882,13 +1868,19 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>201</v>
+      </c>
+      <c r="E15" t="s">
+        <v>202</v>
       </c>
       <c r="F15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="G15" s="1">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1896,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1907,8 +1899,11 @@
       <c r="F16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1916,16 +1911,19 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G17" s="1">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1933,19 +1931,22 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1959,13 +1960,16 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G19" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1976,13 +1980,16 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="G20" s="1">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1990,56 +1997,62 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G21" s="1">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="G22" s="1">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="G23" s="1">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2047,22 +2060,25 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
         <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1">
+        <v>44305</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2076,13 +2092,16 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="G25" s="1">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2090,16 +2109,19 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G26" s="1">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -2107,19 +2129,22 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G27" s="1">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2130,13 +2155,16 @@
         <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G28" s="1">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2144,19 +2172,22 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2167,16 +2198,19 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="G30" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2187,16 +2221,19 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G31" s="1">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2204,84 +2241,93 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" t="s">
         <v>62</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="F33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
       </c>
       <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="F35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -2290,449 +2336,398 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G36" s="1">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="1">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>72</v>
       </c>
-      <c r="F37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="1">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>75</v>
       </c>
-      <c r="D38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E38" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" t="s">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>77</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="1">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="F39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
       <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
         <v>134</v>
-      </c>
-      <c r="C40" t="s">
-        <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="1">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" s="1">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="1">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>217</v>
+      </c>
+      <c r="F45" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G45" s="1">
+        <v>44291</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="1">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="1">
+        <v>44279</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="1">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" t="s">
-        <v>233</v>
-      </c>
-      <c r="F45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" t="s">
-        <v>200</v>
-      </c>
-      <c r="E47" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>235</v>
-      </c>
-      <c r="D48" t="s">
-        <v>236</v>
-      </c>
-      <c r="F48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="G50" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>100</v>
       </c>
-      <c r="F50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="1">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>101</v>
       </c>
-      <c r="B51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="1">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>102</v>
       </c>
-      <c r="B52" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" t="s">
         <v>165</v>
       </c>
-      <c r="D52" t="s">
-        <v>240</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>166</v>
       </c>
-      <c r="F52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" t="s">
-        <v>203</v>
-      </c>
-      <c r="E53" t="s">
-        <v>204</v>
-      </c>
       <c r="F53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
